--- a/data/GEO_submission_INRISEQ_12_2021/GEO_submission_sheet.xlsx
+++ b/data/GEO_submission_INRISEQ_12_2021/GEO_submission_sheet.xlsx
@@ -2087,7 +2087,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="890" uniqueCount="376">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="891" uniqueCount="376">
   <si>
     <t xml:space="preserve"># High-throughput sequencing metadata template. (Version: April 28, 2020)</t>
   </si>
@@ -2198,6 +2198,9 @@
   </si>
   <si>
     <t xml:space="preserve">supplementary file</t>
+  </si>
+  <si>
+    <t xml:space="preserve">raw_counts.tsv</t>
   </si>
   <si>
     <t xml:space="preserve">SAMPLES</t>
@@ -2416,9 +2419,6 @@
     <t xml:space="preserve">Total RNA </t>
   </si>
   <si>
-    <t xml:space="preserve">raw_counts.tsv</t>
-  </si>
-  <si>
     <t xml:space="preserve">01_no_PNA_3primeend_new.bw</t>
   </si>
   <si>
@@ -3584,7 +3584,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="11">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -3641,11 +3641,6 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -3720,7 +3715,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="29">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -3753,14 +3748,6 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -3774,10 +3761,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -3802,15 +3785,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -3818,14 +3793,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -3845,12 +3812,8 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="justify" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
@@ -3858,10 +3821,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -3952,17 +3911,17 @@
     <tabColor rgb="FFFF00FF"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AMJ324"/>
+  <dimension ref="A1:AMJ163"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B16" activeCellId="0" sqref="B16"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A25" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B48" activeCellId="0" sqref="B48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="28.7421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="42.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="54.6"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="41.95"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="41.94"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="6" min="4" style="1" width="28.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="7.49"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="28.71"/>
@@ -4031,7 +3990,7 @@
       <c r="AMI6" s="0"/>
       <c r="AMJ6" s="0"/>
     </row>
-    <row r="7" s="8" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="6" t="s">
         <v>5</v>
       </c>
@@ -4039,10 +3998,8 @@
       <c r="C7" s="7"/>
       <c r="H7" s="7"/>
       <c r="I7" s="7"/>
-      <c r="AMI7" s="0"/>
-      <c r="AMJ7" s="0"/>
-    </row>
-    <row r="8" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="8" s="5" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="4" t="s">
         <v>6</v>
       </c>
@@ -4053,316 +4010,290 @@
       <c r="AMI8" s="0"/>
       <c r="AMJ8" s="0"/>
     </row>
-    <row r="9" s="8" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="10" t="s">
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="11" t="s">
+      <c r="B9" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="11"/>
-      <c r="H9" s="11"/>
-      <c r="I9" s="11"/>
-      <c r="AMI9" s="0"/>
-      <c r="AMJ9" s="0"/>
-    </row>
-    <row r="10" s="8" customFormat="true" ht="37.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="10" t="s">
+      <c r="C9" s="9"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="9"/>
+    </row>
+    <row r="10" customFormat="false" ht="37.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="12" t="s">
+      <c r="B10" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="11"/>
-      <c r="H10" s="11"/>
-      <c r="I10" s="11"/>
-      <c r="AMI10" s="0"/>
-      <c r="AMJ10" s="0"/>
-    </row>
-    <row r="11" s="8" customFormat="true" ht="38.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="10" t="s">
+      <c r="C10" s="9"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="9"/>
+    </row>
+    <row r="11" customFormat="false" ht="38.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A11" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="11" t="s">
+      <c r="B11" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="11"/>
-      <c r="H11" s="11"/>
-      <c r="I11" s="11"/>
-      <c r="AMI11" s="0"/>
-      <c r="AMJ11" s="0"/>
-    </row>
-    <row r="12" s="8" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="10" t="s">
+      <c r="C11" s="9"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="9"/>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="12" t="s">
+      <c r="B12" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="11"/>
+      <c r="C12" s="9"/>
       <c r="H12" s="7"/>
       <c r="I12" s="7"/>
-      <c r="AMI12" s="0"/>
-      <c r="AMJ12" s="0"/>
-    </row>
-    <row r="13" s="8" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="13" t="s">
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="12" t="s">
+      <c r="B13" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="11"/>
+      <c r="C13" s="9"/>
       <c r="H13" s="7"/>
       <c r="I13" s="7"/>
-      <c r="AMI13" s="0"/>
-      <c r="AMJ13" s="0"/>
-    </row>
-    <row r="14" s="8" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="13" t="s">
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="12" t="s">
+      <c r="B14" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="11"/>
+      <c r="C14" s="9"/>
       <c r="H14" s="7"/>
       <c r="I14" s="7"/>
-      <c r="AMI14" s="0"/>
-      <c r="AMJ14" s="0"/>
-    </row>
-    <row r="15" s="8" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="13" t="s">
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="12" t="s">
+      <c r="B15" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="C15" s="11"/>
+      <c r="C15" s="9"/>
       <c r="H15" s="7"/>
       <c r="I15" s="7"/>
-      <c r="AMI15" s="0"/>
-      <c r="AMJ15" s="0"/>
-    </row>
-    <row r="16" s="8" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="13" t="s">
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="B16" s="12" t="s">
+      <c r="B16" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C16" s="11"/>
+      <c r="C16" s="9"/>
       <c r="H16" s="7"/>
       <c r="I16" s="7"/>
-      <c r="AMI16" s="0"/>
-      <c r="AMJ16" s="0"/>
-    </row>
-    <row r="17" s="8" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="13" t="s">
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="B17" s="14"/>
-      <c r="C17" s="11"/>
+      <c r="B17" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" s="9"/>
       <c r="H17" s="7"/>
       <c r="I17" s="7"/>
-      <c r="AMI17" s="0"/>
-      <c r="AMJ17" s="0"/>
-    </row>
-    <row r="18" s="8" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="13"/>
-      <c r="B18" s="12"/>
-      <c r="C18" s="11"/>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="11"/>
+      <c r="B18" s="10"/>
+      <c r="C18" s="9"/>
       <c r="H18" s="7"/>
       <c r="I18" s="7"/>
-      <c r="AMI18" s="0"/>
-      <c r="AMJ18" s="0"/>
-    </row>
-    <row r="19" s="8" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B19" s="7"/>
-      <c r="C19" s="11"/>
+      <c r="C19" s="9"/>
       <c r="H19" s="7"/>
       <c r="I19" s="7"/>
-      <c r="AMI19" s="0"/>
-      <c r="AMJ19" s="0"/>
-    </row>
-    <row r="20" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="15" t="s">
-        <v>21</v>
+    </row>
+    <row r="20" s="5" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="12" t="s">
+        <v>22</v>
       </c>
       <c r="AMI20" s="0"/>
       <c r="AMJ20" s="0"/>
     </row>
-    <row r="21" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="16" t="s">
-        <v>22</v>
+    <row r="21" s="5" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="13" t="s">
+        <v>23</v>
       </c>
       <c r="AMI21" s="0"/>
       <c r="AMJ21" s="0"/>
     </row>
-    <row r="22" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="B22" s="17"/>
-      <c r="C22" s="17"/>
-      <c r="D22" s="17"/>
-      <c r="E22" s="17"/>
-      <c r="F22" s="17"/>
-      <c r="G22" s="17"/>
+    <row r="22" s="5" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" s="14"/>
+      <c r="C22" s="14"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="14"/>
+      <c r="G22" s="14"/>
       <c r="AMI22" s="0"/>
       <c r="AMJ22" s="0"/>
     </row>
-    <row r="23" s="18" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="B23" s="18" t="s">
+    <row r="23" s="15" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="C23" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="D23" s="19" t="s">
+      <c r="C23" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="E23" s="18" t="s">
+      <c r="D23" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="F23" s="18" t="s">
+      <c r="E23" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="G23" s="18" t="s">
+      <c r="F23" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="H23" s="18" t="s">
+      <c r="G23" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="I23" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="J23" s="18" t="s">
+      <c r="H23" s="15" t="s">
         <v>31</v>
+      </c>
+      <c r="I23" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="J23" s="15" t="s">
+        <v>32</v>
       </c>
       <c r="AMI23" s="0"/>
       <c r="AMJ23" s="0"/>
     </row>
-    <row r="24" s="20" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="B24" s="20" t="s">
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C24" s="20" t="s">
+      <c r="B24" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D24" s="20" t="s">
+      <c r="C24" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E24" s="21" t="s">
+      <c r="D24" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="F24" s="21" t="s">
+      <c r="E24" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="H24" s="20" t="s">
+      <c r="F24" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="I24" s="20" t="s">
+      <c r="H24" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I24" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="J24" s="20" t="s">
+      <c r="J24" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="AMI24" s="0"/>
-      <c r="AMJ24" s="0"/>
-    </row>
-    <row r="25" s="20" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="20" t="s">
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B25" s="20" t="s">
+      <c r="B25" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C25" s="20" t="s">
-        <v>34</v>
-      </c>
-      <c r="D25" s="20" t="s">
+      <c r="C25" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E25" s="21" t="s">
+      <c r="D25" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="F25" s="21" t="s">
+      <c r="E25" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="H25" s="20" t="s">
+      <c r="F25" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="I25" s="20" t="s">
+      <c r="H25" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I25" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="J25" s="20" t="s">
+      <c r="J25" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="AMI25" s="0"/>
-      <c r="AMJ25" s="0"/>
-    </row>
-    <row r="26" s="20" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="20" t="s">
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B26" s="20" t="s">
+      <c r="B26" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C26" s="20" t="s">
-        <v>34</v>
-      </c>
-      <c r="D26" s="20" t="s">
+      <c r="C26" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E26" s="21" t="s">
+      <c r="D26" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="F26" s="21" t="s">
+      <c r="E26" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="H26" s="20" t="s">
+      <c r="F26" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="I26" s="20" t="s">
+      <c r="H26" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I26" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="J26" s="20" t="s">
+      <c r="J26" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="AMI26" s="0"/>
-      <c r="AMJ26" s="0"/>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="20" t="s">
+      <c r="A27" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B27" s="20" t="s">
+      <c r="B27" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C27" s="20" t="s">
-        <v>34</v>
-      </c>
-      <c r="D27" s="20" t="s">
+      <c r="C27" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E27" s="21" t="s">
+      <c r="D27" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="F27" s="21" t="s">
+      <c r="E27" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="H27" s="20" t="s">
+      <c r="F27" s="17" t="s">
         <v>38</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>20</v>
       </c>
       <c r="I27" s="1" t="s">
         <v>51</v>
@@ -4372,26 +4303,26 @@
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="20" t="s">
+      <c r="A28" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B28" s="20" t="s">
+      <c r="B28" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C28" s="20" t="s">
-        <v>34</v>
-      </c>
-      <c r="D28" s="20" t="s">
+      <c r="C28" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E28" s="21" t="s">
+      <c r="D28" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="F28" s="21" t="s">
+      <c r="E28" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="H28" s="20" t="s">
+      <c r="F28" s="17" t="s">
         <v>38</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>20</v>
       </c>
       <c r="I28" s="1" t="s">
         <v>55</v>
@@ -4401,26 +4332,26 @@
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="20" t="s">
+      <c r="A29" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B29" s="20" t="s">
+      <c r="B29" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C29" s="20" t="s">
-        <v>34</v>
-      </c>
-      <c r="D29" s="20" t="s">
+      <c r="C29" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E29" s="22" t="s">
+      <c r="D29" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E29" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="F29" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="H29" s="20" t="s">
+      <c r="F29" s="17" t="s">
         <v>38</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>20</v>
       </c>
       <c r="I29" s="1" t="s">
         <v>60</v>
@@ -4430,26 +4361,26 @@
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="20" t="s">
+      <c r="A30" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="B30" s="20" t="s">
+      <c r="B30" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="C30" s="20" t="s">
-        <v>34</v>
-      </c>
-      <c r="D30" s="20" t="s">
+      <c r="C30" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E30" s="22" t="s">
+      <c r="D30" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E30" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="F30" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="H30" s="20" t="s">
+      <c r="F30" s="17" t="s">
         <v>38</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>20</v>
       </c>
       <c r="I30" s="1" t="s">
         <v>64</v>
@@ -4459,26 +4390,26 @@
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="20" t="s">
+      <c r="A31" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B31" s="20" t="s">
+      <c r="B31" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="C31" s="20" t="s">
-        <v>34</v>
-      </c>
-      <c r="D31" s="20" t="s">
+      <c r="C31" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E31" s="22" t="s">
+      <c r="D31" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E31" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="F31" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="H31" s="20" t="s">
+      <c r="F31" s="17" t="s">
         <v>38</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>20</v>
       </c>
       <c r="I31" s="1" t="s">
         <v>68</v>
@@ -4488,26 +4419,26 @@
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="20" t="s">
+      <c r="A32" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="B32" s="20" t="s">
+      <c r="B32" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C32" s="20" t="s">
-        <v>34</v>
-      </c>
-      <c r="D32" s="20" t="s">
+      <c r="C32" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E32" s="22" t="s">
+      <c r="D32" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E32" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="F32" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="H32" s="20" t="s">
+      <c r="F32" s="17" t="s">
         <v>38</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>20</v>
       </c>
       <c r="I32" s="1" t="s">
         <v>73</v>
@@ -4517,26 +4448,26 @@
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="20" t="s">
+      <c r="A33" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="B33" s="20" t="s">
+      <c r="B33" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="C33" s="20" t="s">
-        <v>34</v>
-      </c>
-      <c r="D33" s="20" t="s">
+      <c r="C33" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E33" s="22" t="s">
+      <c r="D33" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E33" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="F33" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="H33" s="20" t="s">
+      <c r="F33" s="17" t="s">
         <v>38</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>20</v>
       </c>
       <c r="I33" s="1" t="s">
         <v>77</v>
@@ -4546,26 +4477,26 @@
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="20" t="s">
+      <c r="A34" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="B34" s="20" t="s">
+      <c r="B34" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="C34" s="20" t="s">
-        <v>34</v>
-      </c>
-      <c r="D34" s="20" t="s">
+      <c r="C34" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E34" s="22" t="s">
+      <c r="D34" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E34" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="F34" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="H34" s="20" t="s">
+      <c r="F34" s="17" t="s">
         <v>38</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>20</v>
       </c>
       <c r="I34" s="1" t="s">
         <v>81</v>
@@ -4575,26 +4506,26 @@
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="20" t="s">
+      <c r="A35" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="B35" s="20" t="s">
+      <c r="B35" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="C35" s="20" t="s">
-        <v>34</v>
-      </c>
-      <c r="D35" s="20" t="s">
+      <c r="C35" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E35" s="22" t="s">
+      <c r="D35" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E35" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="F35" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="H35" s="20" t="s">
+      <c r="F35" s="17" t="s">
         <v>38</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>20</v>
       </c>
       <c r="I35" s="1" t="s">
         <v>86</v>
@@ -4604,26 +4535,26 @@
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="20" t="s">
+      <c r="A36" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B36" s="20" t="s">
+      <c r="B36" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="C36" s="20" t="s">
-        <v>34</v>
-      </c>
-      <c r="D36" s="20" t="s">
+      <c r="C36" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E36" s="22" t="s">
+      <c r="D36" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E36" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="F36" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="H36" s="20" t="s">
+      <c r="F36" s="17" t="s">
         <v>38</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>20</v>
       </c>
       <c r="I36" s="1" t="s">
         <v>90</v>
@@ -4633,26 +4564,26 @@
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="20" t="s">
+      <c r="A37" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="B37" s="20" t="s">
+      <c r="B37" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="C37" s="20" t="s">
-        <v>34</v>
-      </c>
-      <c r="D37" s="20" t="s">
+      <c r="C37" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E37" s="22" t="s">
+      <c r="D37" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E37" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="F37" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="H37" s="20" t="s">
+      <c r="F37" s="17" t="s">
         <v>38</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>20</v>
       </c>
       <c r="I37" s="1" t="s">
         <v>94</v>
@@ -4662,26 +4593,26 @@
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="20" t="s">
+      <c r="A38" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="B38" s="20" t="s">
+      <c r="B38" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="C38" s="20" t="s">
-        <v>34</v>
-      </c>
-      <c r="D38" s="20" t="s">
+      <c r="C38" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E38" s="22" t="s">
+      <c r="D38" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E38" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="F38" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="H38" s="20" t="s">
+      <c r="F38" s="17" t="s">
         <v>38</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>20</v>
       </c>
       <c r="I38" s="1" t="s">
         <v>99</v>
@@ -4691,26 +4622,26 @@
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="20" t="s">
+      <c r="A39" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="B39" s="20" t="s">
+      <c r="B39" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="C39" s="20" t="s">
-        <v>34</v>
-      </c>
-      <c r="D39" s="20" t="s">
+      <c r="C39" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E39" s="22" t="s">
+      <c r="D39" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E39" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="F39" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="H39" s="20" t="s">
+      <c r="F39" s="17" t="s">
         <v>38</v>
+      </c>
+      <c r="H39" s="1" t="s">
+        <v>20</v>
       </c>
       <c r="I39" s="1" t="s">
         <v>103</v>
@@ -4720,26 +4651,26 @@
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="20" t="s">
+      <c r="A40" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="B40" s="20" t="s">
+      <c r="B40" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="C40" s="20" t="s">
-        <v>34</v>
-      </c>
-      <c r="D40" s="20" t="s">
+      <c r="C40" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E40" s="22" t="s">
+      <c r="D40" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E40" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="F40" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="H40" s="20" t="s">
+      <c r="F40" s="17" t="s">
         <v>38</v>
+      </c>
+      <c r="H40" s="1" t="s">
+        <v>20</v>
       </c>
       <c r="I40" s="1" t="s">
         <v>107</v>
@@ -4749,26 +4680,26 @@
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="20" t="s">
+      <c r="A41" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="B41" s="20" t="s">
+      <c r="B41" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="C41" s="20" t="s">
-        <v>34</v>
-      </c>
-      <c r="D41" s="20" t="s">
+      <c r="C41" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E41" s="22" t="s">
+      <c r="D41" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E41" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="F41" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="H41" s="20" t="s">
+      <c r="F41" s="17" t="s">
         <v>38</v>
+      </c>
+      <c r="H41" s="1" t="s">
+        <v>20</v>
       </c>
       <c r="I41" s="1" t="s">
         <v>112</v>
@@ -4778,26 +4709,26 @@
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="20" t="s">
+      <c r="A42" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="B42" s="20" t="s">
+      <c r="B42" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="C42" s="20" t="s">
-        <v>34</v>
-      </c>
-      <c r="D42" s="20" t="s">
+      <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E42" s="22" t="s">
+      <c r="D42" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E42" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="F42" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="H42" s="20" t="s">
+      <c r="F42" s="17" t="s">
         <v>38</v>
+      </c>
+      <c r="H42" s="1" t="s">
+        <v>20</v>
       </c>
       <c r="I42" s="1" t="s">
         <v>116</v>
@@ -4807,26 +4738,26 @@
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="20" t="s">
+      <c r="A43" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="B43" s="20" t="s">
+      <c r="B43" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="C43" s="20" t="s">
-        <v>34</v>
-      </c>
-      <c r="D43" s="20" t="s">
+      <c r="C43" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E43" s="22" t="s">
+      <c r="D43" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E43" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="F43" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="H43" s="20" t="s">
+      <c r="F43" s="17" t="s">
         <v>38</v>
+      </c>
+      <c r="H43" s="1" t="s">
+        <v>20</v>
       </c>
       <c r="I43" s="1" t="s">
         <v>120</v>
@@ -4836,26 +4767,26 @@
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="20" t="s">
+      <c r="A44" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="B44" s="20" t="s">
+      <c r="B44" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="C44" s="20" t="s">
-        <v>34</v>
-      </c>
-      <c r="D44" s="20" t="s">
+      <c r="C44" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E44" s="22" t="s">
+      <c r="D44" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E44" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="F44" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="H44" s="20" t="s">
+      <c r="F44" s="17" t="s">
         <v>38</v>
+      </c>
+      <c r="H44" s="1" t="s">
+        <v>20</v>
       </c>
       <c r="I44" s="1" t="s">
         <v>125</v>
@@ -4865,26 +4796,26 @@
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="20" t="s">
+      <c r="A45" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="B45" s="20" t="s">
+      <c r="B45" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="C45" s="20" t="s">
-        <v>34</v>
-      </c>
-      <c r="D45" s="20" t="s">
+      <c r="C45" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E45" s="22" t="s">
+      <c r="D45" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E45" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="F45" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="H45" s="20" t="s">
+      <c r="F45" s="17" t="s">
         <v>38</v>
+      </c>
+      <c r="H45" s="1" t="s">
+        <v>20</v>
       </c>
       <c r="I45" s="1" t="s">
         <v>129</v>
@@ -4894,26 +4825,26 @@
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="20" t="s">
+      <c r="A46" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="B46" s="20" t="s">
+      <c r="B46" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="C46" s="20" t="s">
-        <v>34</v>
-      </c>
-      <c r="D46" s="20" t="s">
+      <c r="C46" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E46" s="22" t="s">
+      <c r="D46" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E46" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="F46" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="H46" s="20" t="s">
+      <c r="F46" s="17" t="s">
         <v>38</v>
+      </c>
+      <c r="H46" s="1" t="s">
+        <v>20</v>
       </c>
       <c r="I46" s="1" t="s">
         <v>133</v>
@@ -4923,26 +4854,26 @@
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="20" t="s">
+      <c r="A47" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="B47" s="20" t="s">
+      <c r="B47" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="C47" s="20" t="s">
-        <v>34</v>
-      </c>
-      <c r="D47" s="20" t="s">
+      <c r="C47" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E47" s="22" t="s">
+      <c r="D47" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E47" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="F47" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="H47" s="20" t="s">
+      <c r="F47" s="17" t="s">
         <v>38</v>
+      </c>
+      <c r="H47" s="1" t="s">
+        <v>20</v>
       </c>
       <c r="I47" s="1" t="s">
         <v>138</v>
@@ -4952,26 +4883,26 @@
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="20" t="s">
+      <c r="A48" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="B48" s="20" t="s">
+      <c r="B48" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="C48" s="20" t="s">
-        <v>34</v>
-      </c>
-      <c r="D48" s="20" t="s">
+      <c r="C48" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E48" s="22" t="s">
+      <c r="D48" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E48" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="F48" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="H48" s="20" t="s">
+      <c r="F48" s="17" t="s">
         <v>38</v>
+      </c>
+      <c r="H48" s="1" t="s">
+        <v>20</v>
       </c>
       <c r="I48" s="1" t="s">
         <v>142</v>
@@ -4981,26 +4912,26 @@
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="20" t="s">
+      <c r="A49" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="B49" s="20" t="s">
+      <c r="B49" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="C49" s="20" t="s">
-        <v>34</v>
-      </c>
-      <c r="D49" s="20" t="s">
+      <c r="C49" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E49" s="22" t="s">
+      <c r="D49" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E49" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="F49" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="H49" s="20" t="s">
+      <c r="F49" s="17" t="s">
         <v>38</v>
+      </c>
+      <c r="H49" s="1" t="s">
+        <v>20</v>
       </c>
       <c r="I49" s="1" t="s">
         <v>146</v>
@@ -5010,35 +4941,33 @@
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="23"/>
-      <c r="D50" s="20"/>
+      <c r="A50" s="18"/>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="23"/>
+      <c r="A51" s="18"/>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="23"/>
+      <c r="A52" s="18"/>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="23"/>
+      <c r="A53" s="18"/>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="23"/>
+      <c r="A54" s="18"/>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="23"/>
+      <c r="A55" s="18"/>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="23"/>
+      <c r="A56" s="18"/>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="23"/>
+      <c r="A57" s="18"/>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="24" t="s">
+      <c r="A58" s="19" t="s">
         <v>148</v>
       </c>
-      <c r="B58" s="20"/>
     </row>
     <row r="59" s="5" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="5" t="s">
@@ -5048,77 +4977,77 @@
       <c r="AMJ59" s="0"/>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="13" t="s">
+      <c r="A60" s="11" t="s">
         <v>150</v>
       </c>
-      <c r="B60" s="25"/>
-      <c r="C60" s="25"/>
-      <c r="H60" s="25"/>
-      <c r="I60" s="25"/>
+      <c r="B60" s="20"/>
+      <c r="C60" s="20"/>
+      <c r="H60" s="20"/>
+      <c r="I60" s="20"/>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="13" t="s">
+      <c r="A61" s="11" t="s">
         <v>151</v>
       </c>
-      <c r="B61" s="25"/>
-      <c r="C61" s="25"/>
-      <c r="H61" s="25"/>
-      <c r="I61" s="25"/>
+      <c r="B61" s="20"/>
+      <c r="C61" s="20"/>
+      <c r="H61" s="20"/>
+      <c r="I61" s="20"/>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="10" t="s">
+      <c r="A62" s="8" t="s">
         <v>152</v>
       </c>
-      <c r="B62" s="25" t="s">
+      <c r="B62" s="20" t="s">
         <v>153</v>
       </c>
-      <c r="C62" s="25"/>
-      <c r="H62" s="25"/>
-      <c r="I62" s="25"/>
+      <c r="C62" s="20"/>
+      <c r="H62" s="20"/>
+      <c r="I62" s="20"/>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="10" t="s">
+      <c r="A63" s="8" t="s">
         <v>154</v>
       </c>
-      <c r="B63" s="25" t="s">
+      <c r="B63" s="20" t="s">
         <v>155</v>
       </c>
-      <c r="C63" s="25"/>
-      <c r="H63" s="25"/>
-      <c r="I63" s="25"/>
+      <c r="C63" s="20"/>
+      <c r="H63" s="20"/>
+      <c r="I63" s="20"/>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="10" t="s">
+      <c r="A64" s="8" t="s">
         <v>156</v>
       </c>
-      <c r="B64" s="25" t="s">
+      <c r="B64" s="20" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="10"/>
+      <c r="A65" s="8"/>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="6" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="67" s="26" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="26" t="s">
+    <row r="67" s="12" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="12" t="s">
         <v>159</v>
       </c>
       <c r="AMI67" s="0"/>
       <c r="AMJ67" s="0"/>
     </row>
-    <row r="68" s="26" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="26" t="s">
+    <row r="68" s="12" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="12" t="s">
         <v>160</v>
       </c>
       <c r="AMI68" s="0"/>
       <c r="AMJ68" s="0"/>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="10" t="s">
+      <c r="A69" s="8" t="s">
         <v>161</v>
       </c>
       <c r="B69" s="1" t="s">
@@ -5126,7 +5055,7 @@
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="10" t="s">
+      <c r="A70" s="8" t="s">
         <v>161</v>
       </c>
       <c r="B70" s="1" t="s">
@@ -5134,7 +5063,7 @@
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="10" t="s">
+      <c r="A71" s="8" t="s">
         <v>161</v>
       </c>
       <c r="B71" s="1" t="s">
@@ -5142,1555 +5071,1072 @@
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="10" t="s">
+      <c r="A72" s="8" t="s">
         <v>161</v>
       </c>
-      <c r="B72" s="20" t="s">
+      <c r="B72" s="1" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="10" t="s">
+      <c r="A73" s="8" t="s">
         <v>161</v>
       </c>
-      <c r="B73" s="27"/>
-      <c r="C73" s="25"/>
-      <c r="H73" s="25"/>
-      <c r="I73" s="25"/>
+      <c r="B73" s="20"/>
+      <c r="C73" s="20"/>
+      <c r="H73" s="20"/>
+      <c r="I73" s="20"/>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="10" t="s">
+      <c r="A74" s="8" t="s">
         <v>166</v>
       </c>
-      <c r="B74" s="27" t="s">
+      <c r="B74" s="20" t="s">
         <v>167</v>
       </c>
-      <c r="C74" s="25"/>
-      <c r="H74" s="25"/>
-      <c r="I74" s="25"/>
+      <c r="C74" s="20"/>
+      <c r="H74" s="20"/>
+      <c r="I74" s="20"/>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="10" t="s">
+      <c r="A75" s="8" t="s">
         <v>168</v>
       </c>
-      <c r="B75" s="27" t="s">
+      <c r="B75" s="20" t="s">
         <v>169</v>
       </c>
-      <c r="C75" s="25"/>
-      <c r="H75" s="25"/>
-      <c r="I75" s="25"/>
+      <c r="C75" s="20"/>
+      <c r="H75" s="20"/>
+      <c r="I75" s="20"/>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="10"/>
-      <c r="B76" s="12"/>
-      <c r="C76" s="25"/>
-      <c r="H76" s="25"/>
-      <c r="I76" s="25"/>
-    </row>
-    <row r="77" s="26" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="26" t="s">
+      <c r="A76" s="8"/>
+      <c r="B76" s="10"/>
+      <c r="C76" s="20"/>
+      <c r="H76" s="20"/>
+      <c r="I76" s="20"/>
+    </row>
+    <row r="77" s="12" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="12" t="s">
         <v>170</v>
       </c>
       <c r="AMI77" s="0"/>
       <c r="AMJ77" s="0"/>
     </row>
-    <row r="78" s="12" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="28" t="s">
+    <row r="78" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="21" t="s">
         <v>171</v>
       </c>
       <c r="AMI78" s="0"/>
       <c r="AMJ78" s="0"/>
     </row>
-    <row r="79" s="29" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="29" t="s">
+    <row r="79" s="22" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="22" t="s">
         <v>172</v>
       </c>
-      <c r="B79" s="29" t="s">
+      <c r="B79" s="22" t="s">
         <v>173</v>
       </c>
-      <c r="C79" s="30" t="s">
+      <c r="C79" s="23" t="s">
         <v>174</v>
       </c>
       <c r="AMI79" s="0"/>
       <c r="AMJ79" s="0"/>
     </row>
-    <row r="80" s="12" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="12" t="s">
+    <row r="80" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="10" t="s">
         <v>39</v>
       </c>
       <c r="B80" s="0" t="s">
         <v>175</v>
       </c>
-      <c r="C80" s="20" t="s">
+      <c r="C80" s="1" t="s">
         <v>176</v>
       </c>
       <c r="AMI80" s="0"/>
       <c r="AMJ80" s="0"/>
     </row>
-    <row r="81" s="12" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="12" t="s">
+    <row r="81" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="10" t="s">
         <v>73</v>
       </c>
       <c r="B81" s="0" t="s">
         <v>175</v>
       </c>
-      <c r="C81" s="20" t="s">
+      <c r="C81" s="1" t="s">
         <v>177</v>
       </c>
       <c r="AMI81" s="0"/>
       <c r="AMJ81" s="0"/>
     </row>
-    <row r="82" s="12" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="12" t="s">
+    <row r="82" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="10" t="s">
         <v>60</v>
       </c>
       <c r="B82" s="0" t="s">
         <v>175</v>
       </c>
-      <c r="C82" s="20" t="s">
+      <c r="C82" s="1" t="s">
         <v>178</v>
       </c>
       <c r="AMI82" s="0"/>
       <c r="AMJ82" s="0"/>
     </row>
-    <row r="83" s="12" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="12" t="s">
+    <row r="83" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A83" s="10" t="s">
         <v>43</v>
       </c>
       <c r="B83" s="0" t="s">
         <v>175</v>
       </c>
-      <c r="C83" s="20" t="s">
+      <c r="C83" s="1" t="s">
         <v>179</v>
       </c>
       <c r="AMI83" s="0"/>
       <c r="AMJ83" s="0"/>
     </row>
-    <row r="84" s="12" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="12" t="s">
+    <row r="84" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A84" s="10" t="s">
         <v>77</v>
       </c>
       <c r="B84" s="0" t="s">
         <v>175</v>
       </c>
-      <c r="C84" s="20" t="s">
+      <c r="C84" s="1" t="s">
         <v>180</v>
       </c>
       <c r="AMI84" s="0"/>
       <c r="AMJ84" s="0"/>
     </row>
-    <row r="85" s="12" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="12" t="s">
+    <row r="85" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A85" s="10" t="s">
         <v>64</v>
       </c>
       <c r="B85" s="0" t="s">
         <v>175</v>
       </c>
-      <c r="C85" s="20" t="s">
+      <c r="C85" s="1" t="s">
         <v>181</v>
       </c>
       <c r="AMI85" s="0"/>
       <c r="AMJ85" s="0"/>
     </row>
-    <row r="86" s="12" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="12" t="s">
+    <row r="86" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A86" s="10" t="s">
         <v>47</v>
       </c>
       <c r="B86" s="0" t="s">
         <v>175</v>
       </c>
-      <c r="C86" s="20" t="s">
+      <c r="C86" s="1" t="s">
         <v>182</v>
       </c>
       <c r="AMI86" s="0"/>
       <c r="AMJ86" s="0"/>
     </row>
-    <row r="87" s="12" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="12" t="s">
+    <row r="87" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A87" s="10" t="s">
         <v>81</v>
       </c>
       <c r="B87" s="0" t="s">
         <v>175</v>
       </c>
-      <c r="C87" s="20" t="s">
+      <c r="C87" s="1" t="s">
         <v>183</v>
       </c>
       <c r="AMI87" s="0"/>
       <c r="AMJ87" s="0"/>
     </row>
-    <row r="88" s="12" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="12" t="s">
+    <row r="88" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A88" s="10" t="s">
         <v>68</v>
       </c>
       <c r="B88" s="0" t="s">
         <v>175</v>
       </c>
-      <c r="C88" s="20" t="s">
+      <c r="C88" s="1" t="s">
         <v>184</v>
       </c>
       <c r="AMI88" s="0"/>
       <c r="AMJ88" s="0"/>
     </row>
-    <row r="89" s="12" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="12" t="s">
+    <row r="89" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A89" s="10" t="s">
         <v>86</v>
       </c>
       <c r="B89" s="0" t="s">
         <v>175</v>
       </c>
-      <c r="C89" s="20" t="s">
+      <c r="C89" s="1" t="s">
         <v>185</v>
       </c>
       <c r="AMI89" s="0"/>
       <c r="AMJ89" s="0"/>
     </row>
-    <row r="90" s="12" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="12" t="s">
+    <row r="90" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A90" s="10" t="s">
         <v>99</v>
       </c>
       <c r="B90" s="0" t="s">
         <v>175</v>
       </c>
-      <c r="C90" s="20" t="s">
+      <c r="C90" s="1" t="s">
         <v>186</v>
       </c>
       <c r="AMI90" s="0"/>
       <c r="AMJ90" s="0"/>
     </row>
-    <row r="91" s="12" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="12" t="s">
+    <row r="91" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A91" s="10" t="s">
         <v>112</v>
       </c>
       <c r="B91" s="0" t="s">
         <v>175</v>
       </c>
-      <c r="C91" s="20" t="s">
+      <c r="C91" s="1" t="s">
         <v>187</v>
       </c>
       <c r="AMI91" s="0"/>
       <c r="AMJ91" s="0"/>
     </row>
-    <row r="92" s="12" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="12" t="s">
+    <row r="92" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A92" s="10" t="s">
         <v>125</v>
       </c>
       <c r="B92" s="0" t="s">
         <v>175</v>
       </c>
-      <c r="C92" s="20" t="s">
+      <c r="C92" s="1" t="s">
         <v>188</v>
       </c>
       <c r="AMI92" s="0"/>
       <c r="AMJ92" s="0"/>
     </row>
-    <row r="93" s="12" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="12" t="s">
+    <row r="93" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A93" s="10" t="s">
         <v>138</v>
       </c>
       <c r="B93" s="0" t="s">
         <v>175</v>
       </c>
-      <c r="C93" s="20" t="s">
+      <c r="C93" s="1" t="s">
         <v>189</v>
       </c>
       <c r="AMI93" s="0"/>
       <c r="AMJ93" s="0"/>
     </row>
-    <row r="94" s="12" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="12" t="s">
+    <row r="94" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A94" s="10" t="s">
         <v>51</v>
       </c>
       <c r="B94" s="0" t="s">
         <v>175</v>
       </c>
-      <c r="C94" s="20" t="s">
+      <c r="C94" s="1" t="s">
         <v>190</v>
       </c>
       <c r="AMI94" s="0"/>
       <c r="AMJ94" s="0"/>
     </row>
-    <row r="95" s="12" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="12" t="s">
+    <row r="95" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A95" s="10" t="s">
         <v>90</v>
       </c>
       <c r="B95" s="0" t="s">
         <v>175</v>
       </c>
-      <c r="C95" s="20" t="s">
+      <c r="C95" s="1" t="s">
         <v>191</v>
       </c>
       <c r="AMI95" s="0"/>
       <c r="AMJ95" s="0"/>
     </row>
-    <row r="96" s="12" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="12" t="s">
+    <row r="96" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A96" s="10" t="s">
         <v>103</v>
       </c>
       <c r="B96" s="0" t="s">
         <v>175</v>
       </c>
-      <c r="C96" s="20" t="s">
+      <c r="C96" s="1" t="s">
         <v>192</v>
       </c>
       <c r="AMI96" s="0"/>
       <c r="AMJ96" s="0"/>
     </row>
-    <row r="97" s="12" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="12" t="s">
+    <row r="97" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A97" s="10" t="s">
         <v>116</v>
       </c>
       <c r="B97" s="0" t="s">
         <v>175</v>
       </c>
-      <c r="C97" s="20" t="s">
+      <c r="C97" s="1" t="s">
         <v>193</v>
       </c>
       <c r="AMI97" s="0"/>
       <c r="AMJ97" s="0"/>
     </row>
-    <row r="98" s="12" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="12" t="s">
+    <row r="98" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A98" s="10" t="s">
         <v>129</v>
       </c>
       <c r="B98" s="0" t="s">
         <v>175</v>
       </c>
-      <c r="C98" s="20" t="s">
+      <c r="C98" s="1" t="s">
         <v>194</v>
       </c>
       <c r="AMI98" s="0"/>
       <c r="AMJ98" s="0"/>
     </row>
-    <row r="99" s="12" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="12" t="s">
+    <row r="99" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A99" s="10" t="s">
         <v>142</v>
       </c>
       <c r="B99" s="0" t="s">
         <v>175</v>
       </c>
-      <c r="C99" s="20" t="s">
+      <c r="C99" s="1" t="s">
         <v>195</v>
       </c>
       <c r="AMI99" s="0"/>
       <c r="AMJ99" s="0"/>
     </row>
-    <row r="100" s="12" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="12" t="s">
+    <row r="100" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A100" s="10" t="s">
         <v>55</v>
       </c>
       <c r="B100" s="0" t="s">
         <v>175</v>
       </c>
-      <c r="C100" s="20" t="s">
+      <c r="C100" s="1" t="s">
         <v>196</v>
       </c>
       <c r="AMI100" s="0"/>
       <c r="AMJ100" s="0"/>
     </row>
-    <row r="101" s="12" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="12" t="s">
+    <row r="101" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A101" s="10" t="s">
         <v>94</v>
       </c>
       <c r="B101" s="0" t="s">
         <v>175</v>
       </c>
-      <c r="C101" s="20" t="s">
+      <c r="C101" s="1" t="s">
         <v>197</v>
       </c>
       <c r="AMI101" s="0"/>
       <c r="AMJ101" s="0"/>
     </row>
-    <row r="102" s="12" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="12" t="s">
+    <row r="102" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A102" s="10" t="s">
         <v>107</v>
       </c>
       <c r="B102" s="0" t="s">
         <v>175</v>
       </c>
-      <c r="C102" s="20" t="s">
+      <c r="C102" s="1" t="s">
         <v>198</v>
       </c>
       <c r="AMI102" s="0"/>
       <c r="AMJ102" s="0"/>
     </row>
-    <row r="103" s="12" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A103" s="12" t="s">
+    <row r="103" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A103" s="10" t="s">
         <v>120</v>
       </c>
       <c r="B103" s="0" t="s">
         <v>175</v>
       </c>
-      <c r="C103" s="20" t="s">
+      <c r="C103" s="1" t="s">
         <v>199</v>
       </c>
       <c r="AMI103" s="0"/>
       <c r="AMJ103" s="0"/>
     </row>
-    <row r="104" s="12" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A104" s="12" t="s">
+    <row r="104" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A104" s="10" t="s">
         <v>133</v>
       </c>
       <c r="B104" s="0" t="s">
         <v>175</v>
       </c>
-      <c r="C104" s="20" t="s">
+      <c r="C104" s="1" t="s">
         <v>200</v>
       </c>
       <c r="AMI104" s="0"/>
       <c r="AMJ104" s="0"/>
     </row>
-    <row r="105" s="12" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A105" s="12" t="s">
+    <row r="105" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A105" s="10" t="s">
         <v>146</v>
       </c>
       <c r="B105" s="0" t="s">
         <v>175</v>
       </c>
-      <c r="C105" s="20" t="s">
+      <c r="C105" s="1" t="s">
         <v>201</v>
       </c>
       <c r="AMI105" s="0"/>
       <c r="AMJ105" s="0"/>
     </row>
-    <row r="106" s="12" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A106" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="B106" s="12" t="s">
+    <row r="106" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A106" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B106" s="10" t="s">
         <v>202</v>
       </c>
-      <c r="C106" s="12" t="s">
+      <c r="C106" s="10" t="s">
         <v>203</v>
       </c>
       <c r="AMI106" s="0"/>
       <c r="AMJ106" s="0"/>
     </row>
-    <row r="107" s="12" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A107" s="20"/>
+    <row r="107" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A107" s="1"/>
       <c r="AMI107" s="0"/>
       <c r="AMJ107" s="0"/>
     </row>
-    <row r="108" s="12" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A108" s="20"/>
+    <row r="108" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A108" s="1"/>
       <c r="AMI108" s="0"/>
       <c r="AMJ108" s="0"/>
     </row>
-    <row r="109" s="12" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A109" s="20"/>
+    <row r="109" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A109" s="1"/>
       <c r="AMI109" s="0"/>
       <c r="AMJ109" s="0"/>
     </row>
-    <row r="110" s="26" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A110" s="26" t="s">
+    <row r="110" s="12" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A110" s="12" t="s">
         <v>204</v>
       </c>
       <c r="AMI110" s="0"/>
       <c r="AMJ110" s="0"/>
     </row>
-    <row r="111" s="12" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A111" s="28" t="s">
+    <row r="111" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A111" s="21" t="s">
         <v>205</v>
       </c>
-      <c r="D111" s="28"/>
+      <c r="D111" s="21"/>
       <c r="AMI111" s="0"/>
       <c r="AMJ111" s="0"/>
     </row>
-    <row r="112" s="30" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A112" s="29" t="s">
+    <row r="112" s="23" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A112" s="22" t="s">
         <v>172</v>
       </c>
-      <c r="B112" s="29" t="s">
+      <c r="B112" s="22" t="s">
         <v>173</v>
       </c>
-      <c r="C112" s="30" t="s">
+      <c r="C112" s="23" t="s">
         <v>174</v>
       </c>
-      <c r="D112" s="29" t="s">
+      <c r="D112" s="22" t="s">
         <v>206</v>
       </c>
-      <c r="E112" s="29" t="s">
+      <c r="E112" s="22" t="s">
         <v>207</v>
       </c>
       <c r="AMI112" s="0"/>
       <c r="AMJ112" s="0"/>
     </row>
-    <row r="113" s="12" customFormat="true" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A113" s="12" t="s">
+    <row r="113" s="10" customFormat="true" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A113" s="10" t="s">
         <v>40</v>
       </c>
       <c r="B113" s="0" t="s">
         <v>208</v>
       </c>
-      <c r="C113" s="12" t="s">
+      <c r="C113" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="D113" s="31" t="s">
+      <c r="D113" s="24" t="s">
         <v>210</v>
       </c>
-      <c r="E113" s="12" t="s">
+      <c r="E113" s="10" t="s">
         <v>211</v>
       </c>
       <c r="AMI113" s="0"/>
       <c r="AMJ113" s="0"/>
     </row>
-    <row r="114" s="12" customFormat="true" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A114" s="12" t="s">
+    <row r="114" s="10" customFormat="true" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A114" s="10" t="s">
         <v>74</v>
       </c>
       <c r="B114" s="0" t="s">
         <v>208</v>
       </c>
-      <c r="C114" s="12" t="s">
+      <c r="C114" s="10" t="s">
         <v>212</v>
       </c>
-      <c r="D114" s="31" t="s">
+      <c r="D114" s="24" t="s">
         <v>213</v>
       </c>
-      <c r="E114" s="12" t="s">
+      <c r="E114" s="10" t="s">
         <v>211</v>
       </c>
       <c r="AMI114" s="0"/>
       <c r="AMJ114" s="0"/>
     </row>
-    <row r="115" s="12" customFormat="true" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A115" s="12" t="s">
+    <row r="115" s="10" customFormat="true" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A115" s="10" t="s">
         <v>61</v>
       </c>
       <c r="B115" s="0" t="s">
         <v>208</v>
       </c>
-      <c r="C115" s="12" t="s">
+      <c r="C115" s="10" t="s">
         <v>214</v>
       </c>
-      <c r="D115" s="31" t="s">
+      <c r="D115" s="24" t="s">
         <v>215</v>
       </c>
-      <c r="E115" s="12" t="s">
+      <c r="E115" s="10" t="s">
         <v>211</v>
       </c>
       <c r="AMI115" s="0"/>
       <c r="AMJ115" s="0"/>
     </row>
-    <row r="116" s="12" customFormat="true" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A116" s="12" t="s">
+    <row r="116" s="10" customFormat="true" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A116" s="10" t="s">
         <v>44</v>
       </c>
       <c r="B116" s="0" t="s">
         <v>208</v>
       </c>
-      <c r="C116" s="12" t="s">
+      <c r="C116" s="10" t="s">
         <v>216</v>
       </c>
-      <c r="D116" s="31" t="s">
+      <c r="D116" s="24" t="s">
         <v>217</v>
       </c>
-      <c r="E116" s="12" t="s">
+      <c r="E116" s="10" t="s">
         <v>211</v>
       </c>
       <c r="AMI116" s="0"/>
       <c r="AMJ116" s="0"/>
     </row>
-    <row r="117" s="12" customFormat="true" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A117" s="12" t="s">
+    <row r="117" s="10" customFormat="true" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A117" s="10" t="s">
         <v>78</v>
       </c>
       <c r="B117" s="0" t="s">
         <v>208</v>
       </c>
-      <c r="C117" s="12" t="s">
+      <c r="C117" s="10" t="s">
         <v>218</v>
       </c>
-      <c r="D117" s="31" t="s">
+      <c r="D117" s="24" t="s">
         <v>219</v>
       </c>
-      <c r="E117" s="12" t="s">
+      <c r="E117" s="10" t="s">
         <v>211</v>
       </c>
       <c r="AMI117" s="0"/>
       <c r="AMJ117" s="0"/>
     </row>
-    <row r="118" s="12" customFormat="true" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A118" s="12" t="s">
+    <row r="118" s="10" customFormat="true" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A118" s="10" t="s">
         <v>65</v>
       </c>
       <c r="B118" s="0" t="s">
         <v>208</v>
       </c>
-      <c r="C118" s="12" t="s">
+      <c r="C118" s="10" t="s">
         <v>220</v>
       </c>
-      <c r="D118" s="31" t="s">
+      <c r="D118" s="24" t="s">
         <v>221</v>
       </c>
-      <c r="E118" s="12" t="s">
+      <c r="E118" s="10" t="s">
         <v>211</v>
       </c>
       <c r="AMI118" s="0"/>
       <c r="AMJ118" s="0"/>
     </row>
-    <row r="119" s="12" customFormat="true" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A119" s="12" t="s">
+    <row r="119" s="10" customFormat="true" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A119" s="10" t="s">
         <v>48</v>
       </c>
       <c r="B119" s="0" t="s">
         <v>208</v>
       </c>
-      <c r="C119" s="12" t="s">
+      <c r="C119" s="10" t="s">
         <v>222</v>
       </c>
-      <c r="D119" s="31" t="s">
+      <c r="D119" s="24" t="s">
         <v>223</v>
       </c>
-      <c r="E119" s="12" t="s">
+      <c r="E119" s="10" t="s">
         <v>211</v>
       </c>
       <c r="AMI119" s="0"/>
       <c r="AMJ119" s="0"/>
     </row>
-    <row r="120" s="12" customFormat="true" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A120" s="12" t="s">
+    <row r="120" s="10" customFormat="true" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A120" s="10" t="s">
         <v>82</v>
       </c>
       <c r="B120" s="0" t="s">
         <v>208</v>
       </c>
-      <c r="C120" s="12" t="s">
+      <c r="C120" s="10" t="s">
         <v>224</v>
       </c>
-      <c r="D120" s="31" t="s">
+      <c r="D120" s="24" t="s">
         <v>225</v>
       </c>
-      <c r="E120" s="12" t="s">
+      <c r="E120" s="10" t="s">
         <v>211</v>
       </c>
       <c r="AMI120" s="0"/>
       <c r="AMJ120" s="0"/>
     </row>
-    <row r="121" s="12" customFormat="true" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A121" s="12" t="s">
+    <row r="121" s="10" customFormat="true" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A121" s="10" t="s">
         <v>69</v>
       </c>
       <c r="B121" s="0" t="s">
         <v>208</v>
       </c>
-      <c r="C121" s="12" t="s">
+      <c r="C121" s="10" t="s">
         <v>226</v>
       </c>
-      <c r="D121" s="31" t="s">
+      <c r="D121" s="24" t="s">
         <v>227</v>
       </c>
-      <c r="E121" s="12" t="s">
+      <c r="E121" s="10" t="s">
         <v>211</v>
       </c>
       <c r="AMI121" s="0"/>
       <c r="AMJ121" s="0"/>
     </row>
-    <row r="122" s="12" customFormat="true" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A122" s="12" t="s">
+    <row r="122" s="10" customFormat="true" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A122" s="10" t="s">
         <v>87</v>
       </c>
       <c r="B122" s="0" t="s">
         <v>208</v>
       </c>
-      <c r="C122" s="12" t="s">
+      <c r="C122" s="10" t="s">
         <v>228</v>
       </c>
-      <c r="D122" s="31" t="s">
+      <c r="D122" s="24" t="s">
         <v>229</v>
       </c>
-      <c r="E122" s="12" t="s">
+      <c r="E122" s="10" t="s">
         <v>211</v>
       </c>
       <c r="AMI122" s="0"/>
       <c r="AMJ122" s="0"/>
     </row>
-    <row r="123" s="12" customFormat="true" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A123" s="12" t="s">
+    <row r="123" s="10" customFormat="true" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A123" s="10" t="s">
         <v>100</v>
       </c>
       <c r="B123" s="0" t="s">
         <v>208</v>
       </c>
-      <c r="C123" s="12" t="s">
+      <c r="C123" s="10" t="s">
         <v>230</v>
       </c>
-      <c r="D123" s="31" t="s">
+      <c r="D123" s="24" t="s">
         <v>231</v>
       </c>
-      <c r="E123" s="12" t="s">
+      <c r="E123" s="10" t="s">
         <v>211</v>
       </c>
       <c r="AMI123" s="0"/>
       <c r="AMJ123" s="0"/>
     </row>
-    <row r="124" s="12" customFormat="true" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A124" s="12" t="s">
+    <row r="124" s="10" customFormat="true" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A124" s="10" t="s">
         <v>113</v>
       </c>
       <c r="B124" s="0" t="s">
         <v>208</v>
       </c>
-      <c r="C124" s="12" t="s">
+      <c r="C124" s="10" t="s">
         <v>232</v>
       </c>
-      <c r="D124" s="31" t="s">
+      <c r="D124" s="24" t="s">
         <v>233</v>
       </c>
-      <c r="E124" s="12" t="s">
+      <c r="E124" s="10" t="s">
         <v>211</v>
       </c>
       <c r="AMI124" s="0"/>
       <c r="AMJ124" s="0"/>
     </row>
-    <row r="125" s="12" customFormat="true" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A125" s="12" t="s">
+    <row r="125" s="10" customFormat="true" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A125" s="10" t="s">
         <v>126</v>
       </c>
       <c r="B125" s="0" t="s">
         <v>208</v>
       </c>
-      <c r="C125" s="12" t="s">
+      <c r="C125" s="10" t="s">
         <v>234</v>
       </c>
-      <c r="D125" s="31" t="s">
+      <c r="D125" s="24" t="s">
         <v>235</v>
       </c>
-      <c r="E125" s="12" t="s">
+      <c r="E125" s="10" t="s">
         <v>211</v>
       </c>
       <c r="AMI125" s="0"/>
       <c r="AMJ125" s="0"/>
     </row>
-    <row r="126" s="12" customFormat="true" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A126" s="12" t="s">
+    <row r="126" s="10" customFormat="true" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A126" s="10" t="s">
         <v>139</v>
       </c>
       <c r="B126" s="0" t="s">
         <v>208</v>
       </c>
-      <c r="C126" s="12" t="s">
+      <c r="C126" s="10" t="s">
         <v>236</v>
       </c>
-      <c r="D126" s="31" t="s">
+      <c r="D126" s="24" t="s">
         <v>237</v>
       </c>
-      <c r="E126" s="12" t="s">
+      <c r="E126" s="10" t="s">
         <v>211</v>
       </c>
       <c r="AMI126" s="0"/>
       <c r="AMJ126" s="0"/>
     </row>
-    <row r="127" s="12" customFormat="true" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A127" s="12" t="s">
+    <row r="127" s="10" customFormat="true" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A127" s="10" t="s">
         <v>52</v>
       </c>
       <c r="B127" s="0" t="s">
         <v>208</v>
       </c>
-      <c r="C127" s="12" t="s">
+      <c r="C127" s="10" t="s">
         <v>238</v>
       </c>
-      <c r="D127" s="31" t="s">
+      <c r="D127" s="24" t="s">
         <v>239</v>
       </c>
-      <c r="E127" s="12" t="s">
+      <c r="E127" s="10" t="s">
         <v>211</v>
       </c>
       <c r="AMI127" s="0"/>
       <c r="AMJ127" s="0"/>
     </row>
-    <row r="128" s="12" customFormat="true" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A128" s="12" t="s">
+    <row r="128" s="10" customFormat="true" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A128" s="10" t="s">
         <v>91</v>
       </c>
       <c r="B128" s="0" t="s">
         <v>208</v>
       </c>
-      <c r="C128" s="12" t="s">
+      <c r="C128" s="10" t="s">
         <v>240</v>
       </c>
-      <c r="D128" s="31" t="s">
+      <c r="D128" s="24" t="s">
         <v>241</v>
       </c>
-      <c r="E128" s="12" t="s">
+      <c r="E128" s="10" t="s">
         <v>211</v>
       </c>
       <c r="AMI128" s="0"/>
       <c r="AMJ128" s="0"/>
     </row>
-    <row r="129" s="12" customFormat="true" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A129" s="12" t="s">
+    <row r="129" s="10" customFormat="true" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A129" s="10" t="s">
         <v>104</v>
       </c>
       <c r="B129" s="0" t="s">
         <v>208</v>
       </c>
-      <c r="C129" s="12" t="s">
+      <c r="C129" s="10" t="s">
         <v>242</v>
       </c>
-      <c r="D129" s="31" t="s">
+      <c r="D129" s="24" t="s">
         <v>243</v>
       </c>
-      <c r="E129" s="12" t="s">
+      <c r="E129" s="10" t="s">
         <v>211</v>
       </c>
       <c r="AMI129" s="0"/>
       <c r="AMJ129" s="0"/>
     </row>
-    <row r="130" s="12" customFormat="true" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A130" s="12" t="s">
+    <row r="130" s="10" customFormat="true" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A130" s="10" t="s">
         <v>117</v>
       </c>
       <c r="B130" s="0" t="s">
         <v>208</v>
       </c>
-      <c r="C130" s="12" t="s">
+      <c r="C130" s="10" t="s">
         <v>244</v>
       </c>
-      <c r="D130" s="31" t="s">
+      <c r="D130" s="24" t="s">
         <v>245</v>
       </c>
-      <c r="E130" s="12" t="s">
+      <c r="E130" s="10" t="s">
         <v>211</v>
       </c>
       <c r="AMI130" s="0"/>
       <c r="AMJ130" s="0"/>
     </row>
-    <row r="131" s="12" customFormat="true" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A131" s="12" t="s">
+    <row r="131" s="10" customFormat="true" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A131" s="10" t="s">
         <v>130</v>
       </c>
       <c r="B131" s="0" t="s">
         <v>208</v>
       </c>
-      <c r="C131" s="12" t="s">
+      <c r="C131" s="10" t="s">
         <v>246</v>
       </c>
-      <c r="D131" s="31" t="s">
+      <c r="D131" s="24" t="s">
         <v>247</v>
       </c>
-      <c r="E131" s="12" t="s">
+      <c r="E131" s="10" t="s">
         <v>211</v>
       </c>
       <c r="AMI131" s="0"/>
       <c r="AMJ131" s="0"/>
     </row>
-    <row r="132" s="12" customFormat="true" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A132" s="12" t="s">
+    <row r="132" s="10" customFormat="true" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A132" s="10" t="s">
         <v>143</v>
       </c>
       <c r="B132" s="0" t="s">
         <v>208</v>
       </c>
-      <c r="C132" s="12" t="s">
+      <c r="C132" s="10" t="s">
         <v>248</v>
       </c>
-      <c r="D132" s="31" t="s">
+      <c r="D132" s="24" t="s">
         <v>249</v>
       </c>
-      <c r="E132" s="12" t="s">
+      <c r="E132" s="10" t="s">
         <v>211</v>
       </c>
       <c r="AMI132" s="0"/>
       <c r="AMJ132" s="0"/>
     </row>
-    <row r="133" s="12" customFormat="true" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A133" s="12" t="s">
+    <row r="133" s="10" customFormat="true" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A133" s="10" t="s">
         <v>56</v>
       </c>
       <c r="B133" s="0" t="s">
         <v>208</v>
       </c>
-      <c r="C133" s="12" t="s">
+      <c r="C133" s="10" t="s">
         <v>250</v>
       </c>
-      <c r="D133" s="31" t="s">
+      <c r="D133" s="24" t="s">
         <v>251</v>
       </c>
-      <c r="E133" s="12" t="s">
+      <c r="E133" s="10" t="s">
         <v>211</v>
       </c>
       <c r="AMI133" s="0"/>
       <c r="AMJ133" s="0"/>
     </row>
-    <row r="134" s="12" customFormat="true" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A134" s="12" t="s">
+    <row r="134" s="10" customFormat="true" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A134" s="10" t="s">
         <v>95</v>
       </c>
       <c r="B134" s="0" t="s">
         <v>208</v>
       </c>
-      <c r="C134" s="12" t="s">
+      <c r="C134" s="10" t="s">
         <v>252</v>
       </c>
-      <c r="D134" s="31" t="s">
+      <c r="D134" s="24" t="s">
         <v>253</v>
       </c>
-      <c r="E134" s="12" t="s">
+      <c r="E134" s="10" t="s">
         <v>211</v>
       </c>
       <c r="AMI134" s="0"/>
       <c r="AMJ134" s="0"/>
     </row>
-    <row r="135" s="12" customFormat="true" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A135" s="12" t="s">
+    <row r="135" s="10" customFormat="true" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A135" s="10" t="s">
         <v>108</v>
       </c>
       <c r="B135" s="0" t="s">
         <v>208</v>
       </c>
-      <c r="C135" s="12" t="s">
+      <c r="C135" s="10" t="s">
         <v>254</v>
       </c>
-      <c r="D135" s="31" t="s">
+      <c r="D135" s="24" t="s">
         <v>255</v>
       </c>
-      <c r="E135" s="12" t="s">
+      <c r="E135" s="10" t="s">
         <v>211</v>
       </c>
       <c r="AMI135" s="0"/>
       <c r="AMJ135" s="0"/>
     </row>
-    <row r="136" s="12" customFormat="true" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A136" s="12" t="s">
+    <row r="136" s="10" customFormat="true" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A136" s="10" t="s">
         <v>121</v>
       </c>
       <c r="B136" s="0" t="s">
         <v>208</v>
       </c>
-      <c r="C136" s="12" t="s">
+      <c r="C136" s="10" t="s">
         <v>256</v>
       </c>
-      <c r="D136" s="31" t="s">
+      <c r="D136" s="24" t="s">
         <v>257</v>
       </c>
-      <c r="E136" s="12" t="s">
+      <c r="E136" s="10" t="s">
         <v>211</v>
       </c>
       <c r="AMI136" s="0"/>
       <c r="AMJ136" s="0"/>
     </row>
-    <row r="137" s="12" customFormat="true" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A137" s="12" t="s">
+    <row r="137" s="10" customFormat="true" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A137" s="10" t="s">
         <v>134</v>
       </c>
       <c r="B137" s="0" t="s">
         <v>208</v>
       </c>
-      <c r="C137" s="12" t="s">
+      <c r="C137" s="10" t="s">
         <v>258</v>
       </c>
-      <c r="D137" s="31" t="s">
+      <c r="D137" s="24" t="s">
         <v>259</v>
       </c>
-      <c r="E137" s="12" t="s">
+      <c r="E137" s="10" t="s">
         <v>211</v>
       </c>
       <c r="AMI137" s="0"/>
       <c r="AMJ137" s="0"/>
     </row>
-    <row r="138" s="12" customFormat="true" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A138" s="12" t="s">
+    <row r="138" s="10" customFormat="true" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A138" s="10" t="s">
         <v>147</v>
       </c>
       <c r="B138" s="0" t="s">
         <v>208</v>
       </c>
-      <c r="C138" s="12" t="s">
+      <c r="C138" s="10" t="s">
         <v>260</v>
       </c>
-      <c r="D138" s="31" t="s">
+      <c r="D138" s="24" t="s">
         <v>261</v>
       </c>
-      <c r="E138" s="12" t="s">
+      <c r="E138" s="10" t="s">
         <v>211</v>
       </c>
       <c r="AMI138" s="0"/>
       <c r="AMJ138" s="0"/>
     </row>
-    <row r="139" s="12" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="139" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AMI139" s="0"/>
       <c r="AMJ139" s="0"/>
     </row>
-    <row r="140" s="12" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="140" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AMI140" s="0"/>
       <c r="AMJ140" s="0"/>
     </row>
-    <row r="141" s="12" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="141" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AMI141" s="0"/>
       <c r="AMJ141" s="0"/>
     </row>
-    <row r="142" s="12" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="142" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AMI142" s="0"/>
       <c r="AMJ142" s="0"/>
     </row>
-    <row r="143" s="12" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="143" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AMI143" s="0"/>
       <c r="AMJ143" s="0"/>
     </row>
-    <row r="144" s="12" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="144" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AMI144" s="0"/>
       <c r="AMJ144" s="0"/>
     </row>
-    <row r="145" s="12" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="145" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AMI145" s="0"/>
       <c r="AMJ145" s="0"/>
     </row>
-    <row r="146" s="12" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="146" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AMI146" s="0"/>
       <c r="AMJ146" s="0"/>
     </row>
-    <row r="147" s="12" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="147" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AMI147" s="0"/>
       <c r="AMJ147" s="0"/>
     </row>
-    <row r="148" s="12" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="148" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AMI148" s="0"/>
       <c r="AMJ148" s="0"/>
     </row>
-    <row r="149" s="12" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="149" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AMI149" s="0"/>
       <c r="AMJ149" s="0"/>
     </row>
-    <row r="150" s="12" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="150" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AMI150" s="0"/>
       <c r="AMJ150" s="0"/>
     </row>
-    <row r="151" s="12" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="151" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AMI151" s="0"/>
       <c r="AMJ151" s="0"/>
     </row>
-    <row r="152" s="12" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="152" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AMI152" s="0"/>
       <c r="AMJ152" s="0"/>
     </row>
-    <row r="153" s="12" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="153" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AMI153" s="0"/>
       <c r="AMJ153" s="0"/>
     </row>
-    <row r="154" s="12" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="154" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AMI154" s="0"/>
       <c r="AMJ154" s="0"/>
     </row>
-    <row r="155" s="12" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="155" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AMI155" s="0"/>
       <c r="AMJ155" s="0"/>
     </row>
-    <row r="156" s="26" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="156" s="12" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AMI156" s="0"/>
       <c r="AMJ156" s="0"/>
     </row>
-    <row r="157" s="12" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A157" s="28"/>
+    <row r="157" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A157" s="21"/>
       <c r="AMI157" s="0"/>
       <c r="AMJ157" s="0"/>
     </row>
-    <row r="158" s="29" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="158" s="22" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AMI158" s="0"/>
       <c r="AMJ158" s="0"/>
     </row>
-    <row r="159" s="12" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="159" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AMI159" s="0"/>
       <c r="AMJ159" s="0"/>
     </row>
-    <row r="160" s="12" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="160" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AMI160" s="0"/>
       <c r="AMJ160" s="0"/>
     </row>
-    <row r="161" s="12" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="161" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AMI161" s="0"/>
       <c r="AMJ161" s="0"/>
     </row>
-    <row r="162" s="12" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="162" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AMI162" s="0"/>
       <c r="AMJ162" s="0"/>
     </row>
-    <row r="163" s="12" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="163" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AMI163" s="0"/>
       <c r="AMJ163" s="0"/>
-    </row>
-    <row r="164" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A164" s="8"/>
-    </row>
-    <row r="165" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A165" s="8"/>
-    </row>
-    <row r="166" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A166" s="8"/>
-    </row>
-    <row r="167" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A167" s="8"/>
-    </row>
-    <row r="168" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A168" s="8"/>
-    </row>
-    <row r="169" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A169" s="8"/>
-    </row>
-    <row r="170" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A170" s="8"/>
-    </row>
-    <row r="171" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A171" s="8"/>
-    </row>
-    <row r="172" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A172" s="8"/>
-    </row>
-    <row r="173" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A173" s="8"/>
-    </row>
-    <row r="174" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A174" s="8"/>
-    </row>
-    <row r="175" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A175" s="8"/>
-    </row>
-    <row r="176" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A176" s="8"/>
-    </row>
-    <row r="177" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A177" s="8"/>
-    </row>
-    <row r="178" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A178" s="8"/>
-    </row>
-    <row r="179" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A179" s="8"/>
-    </row>
-    <row r="180" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A180" s="8"/>
-    </row>
-    <row r="181" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A181" s="8"/>
-    </row>
-    <row r="182" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A182" s="8"/>
-    </row>
-    <row r="183" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A183" s="8"/>
-    </row>
-    <row r="184" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A184" s="8"/>
-    </row>
-    <row r="185" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A185" s="8"/>
-    </row>
-    <row r="186" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A186" s="8"/>
-    </row>
-    <row r="187" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A187" s="8"/>
-    </row>
-    <row r="188" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A188" s="8"/>
-    </row>
-    <row r="189" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A189" s="8"/>
-    </row>
-    <row r="190" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A190" s="8"/>
-    </row>
-    <row r="191" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A191" s="8"/>
-    </row>
-    <row r="192" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A192" s="8"/>
-    </row>
-    <row r="193" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A193" s="8"/>
-    </row>
-    <row r="194" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A194" s="8"/>
-    </row>
-    <row r="195" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A195" s="8"/>
-    </row>
-    <row r="196" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A196" s="8"/>
-    </row>
-    <row r="197" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A197" s="8"/>
-    </row>
-    <row r="198" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A198" s="8"/>
-    </row>
-    <row r="199" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A199" s="8"/>
-    </row>
-    <row r="200" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A200" s="8"/>
-    </row>
-    <row r="201" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A201" s="8"/>
-    </row>
-    <row r="202" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A202" s="8"/>
-    </row>
-    <row r="203" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A203" s="8"/>
-    </row>
-    <row r="204" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A204" s="8"/>
-    </row>
-    <row r="205" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A205" s="8"/>
-    </row>
-    <row r="206" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A206" s="8"/>
-    </row>
-    <row r="207" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A207" s="8"/>
-    </row>
-    <row r="208" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A208" s="8"/>
-    </row>
-    <row r="209" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A209" s="8"/>
-    </row>
-    <row r="210" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A210" s="8"/>
-    </row>
-    <row r="211" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A211" s="8"/>
-    </row>
-    <row r="212" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A212" s="8"/>
-    </row>
-    <row r="213" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A213" s="8"/>
-    </row>
-    <row r="214" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A214" s="8"/>
-    </row>
-    <row r="215" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A215" s="8"/>
-    </row>
-    <row r="216" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A216" s="8"/>
-    </row>
-    <row r="217" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A217" s="8"/>
-    </row>
-    <row r="218" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A218" s="8"/>
-    </row>
-    <row r="219" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A219" s="8"/>
-    </row>
-    <row r="220" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A220" s="8"/>
-    </row>
-    <row r="221" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A221" s="8"/>
-    </row>
-    <row r="222" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A222" s="8"/>
-    </row>
-    <row r="223" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A223" s="8"/>
-    </row>
-    <row r="224" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A224" s="8"/>
-    </row>
-    <row r="225" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A225" s="8"/>
-    </row>
-    <row r="226" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A226" s="8"/>
-    </row>
-    <row r="227" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A227" s="8"/>
-    </row>
-    <row r="228" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A228" s="8"/>
-    </row>
-    <row r="229" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A229" s="8"/>
-    </row>
-    <row r="230" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A230" s="8"/>
-    </row>
-    <row r="231" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A231" s="8"/>
-    </row>
-    <row r="232" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A232" s="8"/>
-    </row>
-    <row r="233" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A233" s="8"/>
-    </row>
-    <row r="234" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A234" s="8"/>
-    </row>
-    <row r="235" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A235" s="8"/>
-    </row>
-    <row r="236" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A236" s="8"/>
-    </row>
-    <row r="237" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A237" s="8"/>
-    </row>
-    <row r="238" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A238" s="8"/>
-    </row>
-    <row r="239" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A239" s="8"/>
-    </row>
-    <row r="240" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A240" s="8"/>
-    </row>
-    <row r="241" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A241" s="8"/>
-    </row>
-    <row r="242" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A242" s="8"/>
-    </row>
-    <row r="243" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A243" s="8"/>
-    </row>
-    <row r="244" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A244" s="8"/>
-    </row>
-    <row r="245" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A245" s="8"/>
-    </row>
-    <row r="246" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A246" s="8"/>
-    </row>
-    <row r="247" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A247" s="8"/>
-    </row>
-    <row r="248" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A248" s="8"/>
-    </row>
-    <row r="249" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A249" s="8"/>
-    </row>
-    <row r="250" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A250" s="8"/>
-    </row>
-    <row r="251" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A251" s="8"/>
-    </row>
-    <row r="252" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A252" s="8"/>
-    </row>
-    <row r="253" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A253" s="8"/>
-    </row>
-    <row r="254" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A254" s="8"/>
-    </row>
-    <row r="255" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A255" s="8"/>
-    </row>
-    <row r="256" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A256" s="8"/>
-    </row>
-    <row r="257" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A257" s="8"/>
-    </row>
-    <row r="258" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A258" s="8"/>
-    </row>
-    <row r="259" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A259" s="8"/>
-    </row>
-    <row r="260" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A260" s="8"/>
-    </row>
-    <row r="261" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A261" s="8"/>
-    </row>
-    <row r="262" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A262" s="8"/>
-    </row>
-    <row r="263" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A263" s="8"/>
-    </row>
-    <row r="264" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A264" s="8"/>
-    </row>
-    <row r="265" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A265" s="8"/>
-    </row>
-    <row r="266" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A266" s="8"/>
-    </row>
-    <row r="267" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A267" s="8"/>
-    </row>
-    <row r="268" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A268" s="8"/>
-    </row>
-    <row r="269" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A269" s="8"/>
-    </row>
-    <row r="270" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A270" s="8"/>
-    </row>
-    <row r="271" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A271" s="8"/>
-    </row>
-    <row r="272" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A272" s="8"/>
-    </row>
-    <row r="273" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A273" s="8"/>
-    </row>
-    <row r="274" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A274" s="8"/>
-    </row>
-    <row r="275" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A275" s="8"/>
-    </row>
-    <row r="276" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A276" s="8"/>
-    </row>
-    <row r="277" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A277" s="8"/>
-    </row>
-    <row r="278" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A278" s="8"/>
-    </row>
-    <row r="279" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A279" s="8"/>
-    </row>
-    <row r="280" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A280" s="8"/>
-    </row>
-    <row r="281" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A281" s="8"/>
-    </row>
-    <row r="282" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A282" s="8"/>
-    </row>
-    <row r="283" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A283" s="8"/>
-    </row>
-    <row r="284" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A284" s="8"/>
-    </row>
-    <row r="285" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A285" s="8"/>
-    </row>
-    <row r="286" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A286" s="8"/>
-    </row>
-    <row r="287" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A287" s="8"/>
-    </row>
-    <row r="288" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A288" s="8"/>
-    </row>
-    <row r="289" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A289" s="8"/>
-    </row>
-    <row r="290" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A290" s="8"/>
-    </row>
-    <row r="291" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A291" s="8"/>
-    </row>
-    <row r="292" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A292" s="8"/>
-    </row>
-    <row r="293" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A293" s="8"/>
-    </row>
-    <row r="294" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A294" s="8"/>
-    </row>
-    <row r="295" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A295" s="8"/>
-    </row>
-    <row r="296" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A296" s="8"/>
-    </row>
-    <row r="297" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A297" s="8"/>
-    </row>
-    <row r="298" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A298" s="8"/>
-    </row>
-    <row r="299" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A299" s="8"/>
-    </row>
-    <row r="300" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A300" s="8"/>
-    </row>
-    <row r="301" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A301" s="8"/>
-    </row>
-    <row r="302" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A302" s="8"/>
-    </row>
-    <row r="303" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A303" s="8"/>
-    </row>
-    <row r="304" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A304" s="8"/>
-    </row>
-    <row r="305" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A305" s="8"/>
-    </row>
-    <row r="306" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A306" s="8"/>
-    </row>
-    <row r="307" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A307" s="8"/>
-    </row>
-    <row r="308" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A308" s="8"/>
-    </row>
-    <row r="309" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A309" s="8"/>
-    </row>
-    <row r="310" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A310" s="8"/>
-    </row>
-    <row r="311" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A311" s="8"/>
-    </row>
-    <row r="312" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A312" s="8"/>
-    </row>
-    <row r="313" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A313" s="8"/>
-    </row>
-    <row r="314" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A314" s="8"/>
-    </row>
-    <row r="315" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A315" s="8"/>
-    </row>
-    <row r="316" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A316" s="8"/>
-    </row>
-    <row r="317" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A317" s="8"/>
-    </row>
-    <row r="318" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A318" s="8"/>
-    </row>
-    <row r="319" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A319" s="8"/>
-    </row>
-    <row r="320" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A320" s="8"/>
-    </row>
-    <row r="321" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A321" s="8"/>
-    </row>
-    <row r="322" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A322" s="8"/>
-    </row>
-    <row r="323" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A323" s="8"/>
-    </row>
-    <row r="324" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A324" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -6713,7 +6159,7 @@
     <tabColor rgb="FFC00000"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:O235"/>
+  <dimension ref="A1:O74"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B30" activeCellId="0" sqref="B30"/>
@@ -6722,7 +6168,7 @@
   <sheetFormatPr defaultColWidth="28.7421875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="42.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="40.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="40.87"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="3" style="1" width="28.71"/>
   </cols>
   <sheetData>
@@ -6779,7 +6225,7 @@
       <c r="K6" s="4"/>
       <c r="L6" s="4"/>
     </row>
-    <row r="7" s="8" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="6" t="s">
         <v>5</v>
       </c>
@@ -6789,7 +6235,7 @@
       <c r="K7" s="7"/>
       <c r="L7" s="7"/>
     </row>
-    <row r="8" s="9" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" s="5" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="4" t="s">
         <v>6</v>
       </c>
@@ -6799,196 +6245,196 @@
       <c r="K8" s="4"/>
       <c r="L8" s="4"/>
     </row>
-    <row r="9" s="8" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="10" t="s">
+    <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="11" t="s">
+      <c r="B9" s="9" t="s">
         <v>263</v>
       </c>
-      <c r="C9" s="11"/>
-      <c r="J9" s="11"/>
-      <c r="K9" s="11"/>
-      <c r="L9" s="11"/>
-    </row>
-    <row r="10" s="8" customFormat="true" ht="33.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="10" t="s">
+      <c r="C9" s="9"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="9"/>
+      <c r="L9" s="9"/>
+    </row>
+    <row r="10" customFormat="false" ht="33.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="12" t="s">
+      <c r="B10" s="10" t="s">
         <v>264</v>
       </c>
-      <c r="C10" s="11"/>
-      <c r="J10" s="11"/>
-      <c r="K10" s="11"/>
-      <c r="L10" s="11"/>
-    </row>
-    <row r="11" s="8" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="10" t="s">
+      <c r="C10" s="9"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="9"/>
+      <c r="L10" s="9"/>
+    </row>
+    <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="11" t="s">
+      <c r="B11" s="9" t="s">
         <v>265</v>
       </c>
-      <c r="C11" s="11"/>
-      <c r="J11" s="11"/>
-      <c r="K11" s="11"/>
-      <c r="L11" s="11"/>
-    </row>
-    <row r="12" s="8" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="10" t="s">
+      <c r="C11" s="9"/>
+      <c r="J11" s="9"/>
+      <c r="K11" s="9"/>
+      <c r="L11" s="9"/>
+    </row>
+    <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="12" t="s">
+      <c r="B12" s="10" t="s">
         <v>266</v>
       </c>
-      <c r="C12" s="11"/>
+      <c r="C12" s="9"/>
       <c r="J12" s="7"/>
       <c r="K12" s="7"/>
       <c r="L12" s="7"/>
     </row>
-    <row r="13" s="8" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="10" t="s">
+    <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="12" t="s">
+      <c r="B13" s="10" t="s">
         <v>267</v>
       </c>
-      <c r="C13" s="11"/>
+      <c r="C13" s="9"/>
       <c r="J13" s="7"/>
       <c r="K13" s="7"/>
       <c r="L13" s="7"/>
     </row>
-    <row r="14" s="8" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="13" t="s">
+    <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="B14" s="14"/>
-      <c r="C14" s="11"/>
+      <c r="B14" s="10"/>
+      <c r="C14" s="9"/>
       <c r="J14" s="7"/>
       <c r="K14" s="7"/>
       <c r="L14" s="7"/>
     </row>
-    <row r="15" s="8" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="13"/>
-      <c r="B15" s="12"/>
-      <c r="C15" s="11"/>
+    <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="11"/>
+      <c r="B15" s="10"/>
+      <c r="C15" s="9"/>
       <c r="J15" s="7"/>
       <c r="K15" s="7"/>
       <c r="L15" s="7"/>
     </row>
-    <row r="16" s="8" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B16" s="7"/>
-      <c r="C16" s="11"/>
+      <c r="C16" s="9"/>
       <c r="J16" s="7"/>
       <c r="K16" s="7"/>
       <c r="L16" s="7"/>
     </row>
-    <row r="17" s="9" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="15" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="18" s="9" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="16" t="s">
+    <row r="17" s="5" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="12" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="19" s="9" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="17" t="s">
+    <row r="18" s="5" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="B19" s="17"/>
-      <c r="C19" s="17"/>
-      <c r="D19" s="17"/>
-      <c r="E19" s="17"/>
-      <c r="F19" s="17"/>
-      <c r="G19" s="17"/>
-      <c r="H19" s="17"/>
-      <c r="I19" s="17"/>
-    </row>
-    <row r="20" s="18" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="18" t="s">
+    </row>
+    <row r="19" s="5" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="B20" s="18" t="s">
+      <c r="B19" s="14"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="14"/>
+      <c r="H19" s="14"/>
+      <c r="I19" s="14"/>
+    </row>
+    <row r="20" s="15" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="B20" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="C20" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="D20" s="19" t="s">
+      <c r="C20" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="E20" s="18" t="s">
+      <c r="D20" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="E20" s="15" t="s">
         <v>268</v>
       </c>
-      <c r="F20" s="18" t="s">
+      <c r="F20" s="15" t="s">
         <v>269</v>
       </c>
-      <c r="G20" s="18" t="s">
+      <c r="G20" s="15" t="s">
         <v>270</v>
       </c>
-      <c r="H20" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="I20" s="18" t="s">
+      <c r="H20" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="I20" s="15" t="s">
         <v>271</v>
       </c>
-      <c r="J20" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="K20" s="18" t="s">
+      <c r="J20" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="L20" s="18" t="s">
+      <c r="K20" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="M20" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="N20" s="18" t="s">
+      <c r="L20" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="O20" s="18" t="s">
+      <c r="M20" s="15" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="21" s="20" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="20" t="s">
+      <c r="N20" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="B21" s="20" t="s">
+      <c r="O20" s="15" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="C21" s="20" t="s">
+      <c r="C21" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="D21" s="20" t="s">
+      <c r="D21" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="E21" s="20" t="s">
+      <c r="E21" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="F21" s="21" t="s">
+      <c r="F21" s="17" t="s">
         <v>276</v>
       </c>
-      <c r="G21" s="20" t="s">
+      <c r="G21" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="H21" s="20" t="s">
-        <v>36</v>
-      </c>
-      <c r="J21" s="20" t="s">
+      <c r="H21" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="J21" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="L21" s="20" t="s">
+      <c r="L21" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="M21" s="20" t="s">
+      <c r="M21" s="1" t="s">
         <v>280</v>
       </c>
       <c r="N21" s="7" t="s">
@@ -6996,38 +6442,38 @@
       </c>
       <c r="O21" s="7"/>
     </row>
-    <row r="22" s="20" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="20" t="s">
+    <row r="22" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B22" s="20" t="s">
+      <c r="B22" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="C22" s="20" t="s">
+      <c r="C22" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="D22" s="20" t="s">
+      <c r="D22" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="E22" s="20" t="s">
+      <c r="E22" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="F22" s="21" t="s">
+      <c r="F22" s="17" t="s">
         <v>276</v>
       </c>
-      <c r="G22" s="20" t="s">
+      <c r="G22" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="H22" s="20" t="s">
-        <v>36</v>
-      </c>
-      <c r="J22" s="20" t="s">
+      <c r="H22" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="J22" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="L22" s="20" t="s">
+      <c r="L22" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="M22" s="20" t="s">
+      <c r="M22" s="1" t="s">
         <v>284</v>
       </c>
       <c r="N22" s="7" t="s">
@@ -7035,35 +6481,35 @@
       </c>
       <c r="O22" s="7"/>
     </row>
-    <row r="23" s="20" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="20" t="s">
+    <row r="23" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B23" s="20" t="s">
+      <c r="B23" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="C23" s="20" t="s">
+      <c r="C23" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="D23" s="20" t="s">
+      <c r="D23" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="E23" s="20" t="s">
+      <c r="E23" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="F23" s="21" t="s">
+      <c r="F23" s="17" t="s">
         <v>276</v>
       </c>
-      <c r="G23" s="20" t="s">
+      <c r="G23" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="H23" s="20" t="s">
-        <v>36</v>
-      </c>
-      <c r="J23" s="20" t="s">
+      <c r="H23" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="J23" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="M23" s="20" t="s">
+      <c r="M23" s="1" t="s">
         <v>288</v>
       </c>
       <c r="N23" s="7" t="s">
@@ -7072,7 +6518,7 @@
       <c r="O23" s="7"/>
     </row>
     <row r="24" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="8" t="s">
+      <c r="A24" s="1" t="s">
         <v>49</v>
       </c>
       <c r="B24" s="1" t="s">
@@ -7110,13 +6556,12 @@
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="23"/>
+      <c r="A25" s="18"/>
     </row>
     <row r="26" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="24" t="s">
+      <c r="A26" s="19" t="s">
         <v>148</v>
       </c>
-      <c r="B26" s="20"/>
     </row>
     <row r="27" s="5" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="5" t="s">
@@ -7124,55 +6569,55 @@
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="13" t="s">
+      <c r="A28" s="11" t="s">
         <v>150</v>
       </c>
-      <c r="B28" s="25" t="s">
+      <c r="B28" s="20" t="s">
         <v>295</v>
       </c>
-      <c r="C28" s="25"/>
-      <c r="J28" s="25"/>
-      <c r="K28" s="25"/>
-      <c r="L28" s="25"/>
+      <c r="C28" s="20"/>
+      <c r="J28" s="20"/>
+      <c r="K28" s="20"/>
+      <c r="L28" s="20"/>
     </row>
     <row r="29" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="13" t="s">
+      <c r="A29" s="11" t="s">
         <v>151</v>
       </c>
-      <c r="B29" s="25" t="s">
+      <c r="B29" s="20" t="s">
         <v>296</v>
       </c>
-      <c r="C29" s="25"/>
-      <c r="J29" s="25"/>
-      <c r="K29" s="25"/>
-      <c r="L29" s="25"/>
+      <c r="C29" s="20"/>
+      <c r="J29" s="20"/>
+      <c r="K29" s="20"/>
+      <c r="L29" s="20"/>
     </row>
     <row r="30" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="10" t="s">
+      <c r="A30" s="8" t="s">
         <v>152</v>
       </c>
-      <c r="B30" s="25" t="s">
+      <c r="B30" s="20" t="s">
         <v>297</v>
       </c>
-      <c r="C30" s="25"/>
-      <c r="J30" s="25"/>
-      <c r="K30" s="25"/>
-      <c r="L30" s="25"/>
+      <c r="C30" s="20"/>
+      <c r="J30" s="20"/>
+      <c r="K30" s="20"/>
+      <c r="L30" s="20"/>
     </row>
     <row r="31" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="10" t="s">
+      <c r="A31" s="8" t="s">
         <v>154</v>
       </c>
-      <c r="B31" s="32" t="s">
+      <c r="B31" s="20" t="s">
         <v>298</v>
       </c>
-      <c r="C31" s="25"/>
-      <c r="J31" s="25"/>
-      <c r="K31" s="25"/>
-      <c r="L31" s="25"/>
+      <c r="C31" s="20"/>
+      <c r="J31" s="20"/>
+      <c r="K31" s="20"/>
+      <c r="L31" s="20"/>
     </row>
     <row r="32" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="10" t="s">
+      <c r="A32" s="8" t="s">
         <v>156</v>
       </c>
       <c r="B32" s="1" t="s">
@@ -7180,25 +6625,25 @@
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="10"/>
+      <c r="A33" s="8"/>
     </row>
     <row r="34" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="6" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="35" s="26" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="26" t="s">
+    <row r="35" s="12" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="12" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="36" s="26" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="26" t="s">
+    <row r="36" s="12" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="12" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="10" t="s">
+      <c r="A37" s="8" t="s">
         <v>161</v>
       </c>
       <c r="B37" s="1" t="s">
@@ -7206,7 +6651,7 @@
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="10" t="s">
+      <c r="A38" s="8" t="s">
         <v>161</v>
       </c>
       <c r="B38" s="1" t="s">
@@ -7214,7 +6659,7 @@
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="10" t="s">
+      <c r="A39" s="8" t="s">
         <v>161</v>
       </c>
       <c r="B39" s="1" t="s">
@@ -7222,7 +6667,7 @@
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="10" t="s">
+      <c r="A40" s="8" t="s">
         <v>161</v>
       </c>
       <c r="B40" s="1" t="s">
@@ -7230,774 +6675,286 @@
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="10" t="s">
+      <c r="A41" s="8" t="s">
         <v>161</v>
       </c>
-      <c r="B41" s="27"/>
-      <c r="C41" s="25"/>
-      <c r="J41" s="25"/>
-      <c r="K41" s="25"/>
-      <c r="L41" s="25"/>
+      <c r="B41" s="20"/>
+      <c r="C41" s="20"/>
+      <c r="J41" s="20"/>
+      <c r="K41" s="20"/>
+      <c r="L41" s="20"/>
     </row>
     <row r="42" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="10" t="s">
+      <c r="A42" s="8" t="s">
         <v>166</v>
       </c>
-      <c r="B42" s="27" t="s">
+      <c r="B42" s="20" t="s">
         <v>304</v>
       </c>
-      <c r="C42" s="25"/>
-      <c r="J42" s="25"/>
-      <c r="K42" s="25"/>
-      <c r="L42" s="25"/>
+      <c r="C42" s="20"/>
+      <c r="J42" s="20"/>
+      <c r="K42" s="20"/>
+      <c r="L42" s="20"/>
     </row>
     <row r="43" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="10" t="s">
+      <c r="A43" s="8" t="s">
         <v>168</v>
       </c>
-      <c r="B43" s="27" t="s">
+      <c r="B43" s="20" t="s">
         <v>305</v>
       </c>
-      <c r="C43" s="25"/>
-      <c r="J43" s="25"/>
-      <c r="K43" s="25"/>
-      <c r="L43" s="25"/>
+      <c r="C43" s="20"/>
+      <c r="J43" s="20"/>
+      <c r="K43" s="20"/>
+      <c r="L43" s="20"/>
     </row>
     <row r="44" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="10" t="s">
+      <c r="A44" s="8" t="s">
         <v>168</v>
       </c>
-      <c r="B44" s="27" t="s">
+      <c r="B44" s="20" t="s">
         <v>306</v>
       </c>
-      <c r="C44" s="25"/>
-      <c r="J44" s="25"/>
-      <c r="K44" s="25"/>
-      <c r="L44" s="25"/>
+      <c r="C44" s="20"/>
+      <c r="J44" s="20"/>
+      <c r="K44" s="20"/>
+      <c r="L44" s="20"/>
     </row>
     <row r="45" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="10"/>
-      <c r="B45" s="12"/>
-      <c r="C45" s="25"/>
-      <c r="J45" s="25"/>
-      <c r="K45" s="25"/>
-      <c r="L45" s="25"/>
-    </row>
-    <row r="46" s="26" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="26" t="s">
+      <c r="A45" s="8"/>
+      <c r="B45" s="10"/>
+      <c r="C45" s="20"/>
+      <c r="J45" s="20"/>
+      <c r="K45" s="20"/>
+      <c r="L45" s="20"/>
+    </row>
+    <row r="46" s="12" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="12" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="47" s="12" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="28" t="s">
+    <row r="47" s="10" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="21" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="48" s="29" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="29" t="s">
+    <row r="48" s="22" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="22" t="s">
         <v>172</v>
       </c>
-      <c r="B48" s="29" t="s">
+      <c r="B48" s="22" t="s">
         <v>173</v>
       </c>
-      <c r="C48" s="30" t="s">
+      <c r="C48" s="23" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="49" s="33" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="20" t="s">
+    <row r="49" s="25" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="B49" s="14" t="s">
+      <c r="B49" s="10" t="s">
         <v>307</v>
       </c>
-      <c r="C49" s="20" t="s">
+      <c r="C49" s="1" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="50" s="33" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="20" t="s">
+    <row r="50" s="25" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="B50" s="14" t="s">
+      <c r="B50" s="10" t="s">
         <v>307</v>
       </c>
-      <c r="C50" s="20" t="s">
+      <c r="C50" s="1" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="51" s="12" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="20" t="s">
+    <row r="51" s="10" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="B51" s="12" t="s">
+      <c r="B51" s="10" t="s">
         <v>307</v>
       </c>
-      <c r="C51" s="20" t="s">
+      <c r="C51" s="1" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="52" s="12" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="20" t="s">
+    <row r="52" s="10" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="B52" s="12" t="s">
+      <c r="B52" s="10" t="s">
         <v>311</v>
       </c>
-      <c r="C52" s="20" t="s">
+      <c r="C52" s="1" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="53" s="12" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="20" t="s">
+    <row r="53" s="10" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="B53" s="12" t="s">
+      <c r="B53" s="10" t="s">
         <v>311</v>
       </c>
-      <c r="C53" s="20" t="s">
+      <c r="C53" s="1" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="54" s="12" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="20" t="s">
+    <row r="54" s="10" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="B54" s="12" t="s">
+      <c r="B54" s="10" t="s">
         <v>311</v>
       </c>
-      <c r="C54" s="20" t="s">
+      <c r="C54" s="1" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="55" s="12" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="20" t="s">
+    <row r="55" s="10" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="B55" s="12" t="s">
+      <c r="B55" s="10" t="s">
         <v>311</v>
       </c>
-      <c r="C55" s="20" t="s">
+      <c r="C55" s="1" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="56" s="12" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B56" s="20"/>
-      <c r="C56" s="20"/>
-    </row>
-    <row r="57" s="12" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="20"/>
-    </row>
-    <row r="58" s="26" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="26" t="s">
+    <row r="56" s="10" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B56" s="1"/>
+      <c r="C56" s="1"/>
+    </row>
+    <row r="57" s="10" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="1"/>
+    </row>
+    <row r="58" s="12" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="12" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="59" s="12" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="28" t="s">
+    <row r="59" s="10" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="21" t="s">
         <v>205</v>
       </c>
-      <c r="D59" s="28"/>
-    </row>
-    <row r="60" s="30" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="29" t="s">
+      <c r="D59" s="21"/>
+    </row>
+    <row r="60" s="23" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="22" t="s">
         <v>172</v>
       </c>
-      <c r="B60" s="29" t="s">
+      <c r="B60" s="22" t="s">
         <v>173</v>
       </c>
-      <c r="C60" s="30" t="s">
+      <c r="C60" s="23" t="s">
         <v>174</v>
       </c>
-      <c r="D60" s="29" t="s">
+      <c r="D60" s="22" t="s">
         <v>206</v>
       </c>
-      <c r="E60" s="29" t="s">
+      <c r="E60" s="22" t="s">
         <v>207</v>
       </c>
-      <c r="F60" s="29"/>
-    </row>
-    <row r="61" s="12" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F60" s="22"/>
+    </row>
+    <row r="61" s="10" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="7" t="s">
         <v>281</v>
       </c>
-      <c r="B61" s="20" t="s">
+      <c r="B61" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="C61" s="20" t="s">
+      <c r="C61" s="1" t="s">
         <v>315</v>
       </c>
-      <c r="D61" s="20" t="s">
+      <c r="D61" s="1" t="s">
         <v>316</v>
       </c>
-      <c r="E61" s="14" t="s">
+      <c r="E61" s="10" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="62" s="12" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="62" s="10" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="7" t="s">
         <v>285</v>
       </c>
-      <c r="B62" s="20" t="s">
+      <c r="B62" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="C62" s="20" t="s">
+      <c r="C62" s="1" t="s">
         <v>317</v>
       </c>
-      <c r="D62" s="20" t="s">
+      <c r="D62" s="1" t="s">
         <v>316</v>
       </c>
-      <c r="E62" s="14" t="s">
+      <c r="E62" s="10" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="63" s="12" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="63" s="10" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="7" t="s">
         <v>289</v>
       </c>
-      <c r="B63" s="20" t="s">
+      <c r="B63" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="C63" s="20" t="s">
+      <c r="C63" s="1" t="s">
         <v>318</v>
       </c>
-      <c r="D63" s="20" t="s">
+      <c r="D63" s="1" t="s">
         <v>316</v>
       </c>
-      <c r="E63" s="14" t="s">
+      <c r="E63" s="10" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="64" s="12" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="12" t="s">
+    <row r="64" s="10" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="10" t="s">
         <v>294</v>
       </c>
-      <c r="B64" s="20" t="s">
+      <c r="B64" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="C64" s="20" t="s">
+      <c r="C64" s="1" t="s">
         <v>319</v>
       </c>
-      <c r="D64" s="20" t="s">
+      <c r="D64" s="1" t="s">
         <v>316</v>
       </c>
-      <c r="E64" s="14" t="s">
+      <c r="E64" s="10" t="s">
         <v>211</v>
       </c>
-      <c r="F64" s="14"/>
-    </row>
-    <row r="65" s="12" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F65" s="14"/>
-    </row>
-    <row r="66" s="12" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F66" s="14"/>
-    </row>
-    <row r="67" s="26" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="26" t="s">
+    </row>
+    <row r="65" s="10" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="66" s="10" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="67" s="12" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="12" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="68" s="12" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="28" t="s">
+    <row r="68" s="10" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="21" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="69" s="29" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="29" t="s">
+    <row r="69" s="22" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="22" t="s">
         <v>322</v>
       </c>
-      <c r="B69" s="29" t="s">
+      <c r="B69" s="22" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="70" s="12" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="71" s="12" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="72" s="12" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="73" s="12" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="74" s="12" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="75" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="8"/>
-    </row>
-    <row r="76" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="8"/>
-    </row>
-    <row r="77" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="8"/>
-    </row>
-    <row r="78" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="8"/>
-    </row>
-    <row r="79" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="8"/>
-    </row>
-    <row r="80" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="8"/>
-    </row>
-    <row r="81" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="8"/>
-    </row>
-    <row r="82" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="8"/>
-    </row>
-    <row r="83" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="8"/>
-    </row>
-    <row r="84" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="8"/>
-    </row>
-    <row r="85" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="8"/>
-    </row>
-    <row r="86" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="8"/>
-    </row>
-    <row r="87" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="8"/>
-    </row>
-    <row r="88" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="8"/>
-    </row>
-    <row r="89" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="8"/>
-    </row>
-    <row r="90" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="8"/>
-    </row>
-    <row r="91" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="8"/>
-    </row>
-    <row r="92" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="8"/>
-    </row>
-    <row r="93" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="8"/>
-    </row>
-    <row r="94" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="8"/>
-    </row>
-    <row r="95" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="8"/>
-    </row>
-    <row r="96" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="8"/>
-    </row>
-    <row r="97" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="8"/>
-    </row>
-    <row r="98" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="8"/>
-    </row>
-    <row r="99" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="8"/>
-    </row>
-    <row r="100" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="8"/>
-    </row>
-    <row r="101" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="8"/>
-    </row>
-    <row r="102" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="8"/>
-    </row>
-    <row r="103" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A103" s="8"/>
-    </row>
-    <row r="104" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A104" s="8"/>
-    </row>
-    <row r="105" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A105" s="8"/>
-    </row>
-    <row r="106" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A106" s="8"/>
-    </row>
-    <row r="107" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A107" s="8"/>
-    </row>
-    <row r="108" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A108" s="8"/>
-    </row>
-    <row r="109" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A109" s="8"/>
-    </row>
-    <row r="110" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A110" s="8"/>
-    </row>
-    <row r="111" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A111" s="8"/>
-    </row>
-    <row r="112" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A112" s="8"/>
-    </row>
-    <row r="113" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A113" s="8"/>
-    </row>
-    <row r="114" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A114" s="8"/>
-    </row>
-    <row r="115" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A115" s="8"/>
-    </row>
-    <row r="116" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A116" s="8"/>
-    </row>
-    <row r="117" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A117" s="8"/>
-    </row>
-    <row r="118" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A118" s="8"/>
-    </row>
-    <row r="119" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A119" s="8"/>
-    </row>
-    <row r="120" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A120" s="8"/>
-    </row>
-    <row r="121" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A121" s="8"/>
-    </row>
-    <row r="122" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A122" s="8"/>
-    </row>
-    <row r="123" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A123" s="8"/>
-    </row>
-    <row r="124" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A124" s="8"/>
-    </row>
-    <row r="125" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A125" s="8"/>
-    </row>
-    <row r="126" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A126" s="8"/>
-    </row>
-    <row r="127" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A127" s="8"/>
-    </row>
-    <row r="128" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A128" s="8"/>
-    </row>
-    <row r="129" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A129" s="8"/>
-    </row>
-    <row r="130" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A130" s="8"/>
-    </row>
-    <row r="131" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A131" s="8"/>
-    </row>
-    <row r="132" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A132" s="8"/>
-    </row>
-    <row r="133" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A133" s="8"/>
-    </row>
-    <row r="134" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A134" s="8"/>
-    </row>
-    <row r="135" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A135" s="8"/>
-    </row>
-    <row r="136" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A136" s="8"/>
-    </row>
-    <row r="137" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A137" s="8"/>
-    </row>
-    <row r="138" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A138" s="8"/>
-    </row>
-    <row r="139" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A139" s="8"/>
-    </row>
-    <row r="140" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A140" s="8"/>
-    </row>
-    <row r="141" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A141" s="8"/>
-    </row>
-    <row r="142" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A142" s="8"/>
-    </row>
-    <row r="143" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A143" s="8"/>
-    </row>
-    <row r="144" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A144" s="8"/>
-    </row>
-    <row r="145" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A145" s="8"/>
-    </row>
-    <row r="146" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A146" s="8"/>
-    </row>
-    <row r="147" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A147" s="8"/>
-    </row>
-    <row r="148" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A148" s="8"/>
-    </row>
-    <row r="149" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A149" s="8"/>
-    </row>
-    <row r="150" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A150" s="8"/>
-    </row>
-    <row r="151" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A151" s="8"/>
-    </row>
-    <row r="152" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A152" s="8"/>
-    </row>
-    <row r="153" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A153" s="8"/>
-    </row>
-    <row r="154" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A154" s="8"/>
-    </row>
-    <row r="155" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A155" s="8"/>
-    </row>
-    <row r="156" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A156" s="8"/>
-    </row>
-    <row r="157" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A157" s="8"/>
-    </row>
-    <row r="158" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A158" s="8"/>
-    </row>
-    <row r="159" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A159" s="8"/>
-    </row>
-    <row r="160" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A160" s="8"/>
-    </row>
-    <row r="161" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A161" s="8"/>
-    </row>
-    <row r="162" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A162" s="8"/>
-    </row>
-    <row r="163" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A163" s="8"/>
-    </row>
-    <row r="164" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A164" s="8"/>
-    </row>
-    <row r="165" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A165" s="8"/>
-    </row>
-    <row r="166" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A166" s="8"/>
-    </row>
-    <row r="167" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A167" s="8"/>
-    </row>
-    <row r="168" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A168" s="8"/>
-    </row>
-    <row r="169" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A169" s="8"/>
-    </row>
-    <row r="170" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A170" s="8"/>
-    </row>
-    <row r="171" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A171" s="8"/>
-    </row>
-    <row r="172" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A172" s="8"/>
-    </row>
-    <row r="173" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A173" s="8"/>
-    </row>
-    <row r="174" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A174" s="8"/>
-    </row>
-    <row r="175" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A175" s="8"/>
-    </row>
-    <row r="176" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A176" s="8"/>
-    </row>
-    <row r="177" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A177" s="8"/>
-    </row>
-    <row r="178" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A178" s="8"/>
-    </row>
-    <row r="179" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A179" s="8"/>
-    </row>
-    <row r="180" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A180" s="8"/>
-    </row>
-    <row r="181" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A181" s="8"/>
-    </row>
-    <row r="182" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A182" s="8"/>
-    </row>
-    <row r="183" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A183" s="8"/>
-    </row>
-    <row r="184" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A184" s="8"/>
-    </row>
-    <row r="185" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A185" s="8"/>
-    </row>
-    <row r="186" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A186" s="8"/>
-    </row>
-    <row r="187" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A187" s="8"/>
-    </row>
-    <row r="188" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A188" s="8"/>
-    </row>
-    <row r="189" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A189" s="8"/>
-    </row>
-    <row r="190" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A190" s="8"/>
-    </row>
-    <row r="191" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A191" s="8"/>
-    </row>
-    <row r="192" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A192" s="8"/>
-    </row>
-    <row r="193" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A193" s="8"/>
-    </row>
-    <row r="194" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A194" s="8"/>
-    </row>
-    <row r="195" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A195" s="8"/>
-    </row>
-    <row r="196" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A196" s="8"/>
-    </row>
-    <row r="197" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A197" s="8"/>
-    </row>
-    <row r="198" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A198" s="8"/>
-    </row>
-    <row r="199" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A199" s="8"/>
-    </row>
-    <row r="200" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A200" s="8"/>
-    </row>
-    <row r="201" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A201" s="8"/>
-    </row>
-    <row r="202" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A202" s="8"/>
-    </row>
-    <row r="203" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A203" s="8"/>
-    </row>
-    <row r="204" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A204" s="8"/>
-    </row>
-    <row r="205" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A205" s="8"/>
-    </row>
-    <row r="206" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A206" s="8"/>
-    </row>
-    <row r="207" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A207" s="8"/>
-    </row>
-    <row r="208" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A208" s="8"/>
-    </row>
-    <row r="209" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A209" s="8"/>
-    </row>
-    <row r="210" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A210" s="8"/>
-    </row>
-    <row r="211" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A211" s="8"/>
-    </row>
-    <row r="212" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A212" s="8"/>
-    </row>
-    <row r="213" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A213" s="8"/>
-    </row>
-    <row r="214" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A214" s="8"/>
-    </row>
-    <row r="215" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A215" s="8"/>
-    </row>
-    <row r="216" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A216" s="8"/>
-    </row>
-    <row r="217" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A217" s="8"/>
-    </row>
-    <row r="218" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A218" s="8"/>
-    </row>
-    <row r="219" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A219" s="8"/>
-    </row>
-    <row r="220" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A220" s="8"/>
-    </row>
-    <row r="221" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A221" s="8"/>
-    </row>
-    <row r="222" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A222" s="8"/>
-    </row>
-    <row r="223" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A223" s="8"/>
-    </row>
-    <row r="224" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A224" s="8"/>
-    </row>
-    <row r="225" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A225" s="8"/>
-    </row>
-    <row r="226" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A226" s="8"/>
-    </row>
-    <row r="227" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A227" s="8"/>
-    </row>
-    <row r="228" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A228" s="8"/>
-    </row>
-    <row r="229" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A229" s="8"/>
-    </row>
-    <row r="230" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A230" s="8"/>
-    </row>
-    <row r="231" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A231" s="8"/>
-    </row>
-    <row r="232" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A232" s="8"/>
-    </row>
-    <row r="233" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A233" s="8"/>
-    </row>
-    <row r="234" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A234" s="8"/>
-    </row>
-    <row r="235" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A235" s="8"/>
-    </row>
+    <row r="70" s="10" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="71" s="10" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="72" s="10" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="73" s="10" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="74" s="10" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A19:I19"/>
@@ -8019,7 +6976,7 @@
     <tabColor rgb="FF0070C0"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:R238"/>
+  <dimension ref="A1:R77"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A5" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B33" activeCellId="0" sqref="B33"/>
@@ -8080,7 +7037,7 @@
       <c r="J6" s="4"/>
       <c r="K6" s="4"/>
     </row>
-    <row r="7" s="8" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="6" t="s">
         <v>5</v>
       </c>
@@ -8089,7 +7046,7 @@
       <c r="J7" s="7"/>
       <c r="K7" s="7"/>
     </row>
-    <row r="8" s="9" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" s="5" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="4" t="s">
         <v>6</v>
       </c>
@@ -8098,220 +7055,220 @@
       <c r="J8" s="4"/>
       <c r="K8" s="4"/>
     </row>
-    <row r="9" s="8" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="10" t="s">
+    <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="C9" s="11"/>
-      <c r="J9" s="11"/>
-      <c r="K9" s="11"/>
-    </row>
-    <row r="10" s="8" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="10" t="s">
+      <c r="C9" s="9"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="9"/>
+    </row>
+    <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="1" t="s">
         <v>325</v>
       </c>
-      <c r="C10" s="11"/>
-      <c r="J10" s="11"/>
-      <c r="K10" s="11"/>
-    </row>
-    <row r="11" s="8" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="10" t="s">
+      <c r="C10" s="9"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="9"/>
+    </row>
+    <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="1" t="s">
         <v>326</v>
       </c>
-      <c r="C11" s="11"/>
-      <c r="J11" s="11"/>
-      <c r="K11" s="11"/>
-    </row>
-    <row r="12" s="8" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="10" t="s">
+      <c r="C11" s="9"/>
+      <c r="J11" s="9"/>
+      <c r="K11" s="9"/>
+    </row>
+    <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="1" t="s">
         <v>327</v>
       </c>
-      <c r="C12" s="11"/>
-      <c r="J12" s="11"/>
-      <c r="K12" s="11"/>
-    </row>
-    <row r="13" s="8" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="10" t="s">
+      <c r="C12" s="9"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="9"/>
+    </row>
+    <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="B13" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="C13" s="11"/>
-      <c r="J13" s="11"/>
-      <c r="K13" s="11"/>
-    </row>
-    <row r="14" s="8" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="10" t="s">
+      <c r="C13" s="9"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="9"/>
+    </row>
+    <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B14" s="8" t="s">
+      <c r="B14" s="1" t="s">
         <v>329</v>
       </c>
-      <c r="C14" s="11"/>
-      <c r="J14" s="11"/>
-      <c r="K14" s="11"/>
-    </row>
-    <row r="15" s="8" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="10" t="s">
+      <c r="C14" s="9"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="9"/>
+    </row>
+    <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="12" t="s">
+      <c r="B15" s="10" t="s">
         <v>330</v>
       </c>
-      <c r="C15" s="11"/>
+      <c r="C15" s="9"/>
       <c r="J15" s="7"/>
       <c r="K15" s="7"/>
     </row>
-    <row r="16" s="8" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="10" t="s">
+    <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B16" s="12" t="s">
+      <c r="B16" s="10" t="s">
         <v>331</v>
       </c>
-      <c r="C16" s="11"/>
+      <c r="C16" s="9"/>
       <c r="J16" s="7"/>
       <c r="K16" s="7"/>
     </row>
-    <row r="17" s="8" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="13" t="s">
+    <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="B17" s="14" t="s">
+      <c r="B17" s="10" t="s">
         <v>332</v>
       </c>
-      <c r="C17" s="11"/>
+      <c r="C17" s="9"/>
       <c r="J17" s="7"/>
       <c r="K17" s="7"/>
     </row>
-    <row r="18" s="8" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="13"/>
-      <c r="B18" s="12"/>
-      <c r="C18" s="11"/>
+    <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="11"/>
+      <c r="B18" s="10"/>
+      <c r="C18" s="9"/>
       <c r="J18" s="7"/>
       <c r="K18" s="7"/>
     </row>
-    <row r="19" s="8" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B19" s="7"/>
-      <c r="C19" s="11"/>
+      <c r="C19" s="9"/>
       <c r="J19" s="7"/>
       <c r="K19" s="7"/>
     </row>
-    <row r="20" s="9" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="15" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="21" s="9" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="16" t="s">
+    <row r="20" s="5" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="12" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="22" s="9" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="17" t="s">
+    <row r="21" s="5" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="B22" s="17"/>
-      <c r="C22" s="17"/>
-      <c r="D22" s="17"/>
-      <c r="E22" s="17"/>
-      <c r="F22" s="17"/>
-      <c r="G22" s="17"/>
-      <c r="H22" s="17"/>
-      <c r="I22" s="17"/>
-    </row>
-    <row r="23" s="18" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="18" t="s">
+    </row>
+    <row r="22" s="5" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="B23" s="18" t="s">
+      <c r="B22" s="14"/>
+      <c r="C22" s="14"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="14"/>
+      <c r="G22" s="14"/>
+      <c r="H22" s="14"/>
+      <c r="I22" s="14"/>
+    </row>
+    <row r="23" s="15" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="C23" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="D23" s="19" t="s">
+      <c r="C23" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="E23" s="18" t="s">
+      <c r="D23" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="E23" s="15" t="s">
         <v>269</v>
       </c>
-      <c r="F23" s="18" t="s">
+      <c r="F23" s="15" t="s">
         <v>333</v>
       </c>
-      <c r="G23" s="18" t="s">
+      <c r="G23" s="15" t="s">
         <v>334</v>
       </c>
-      <c r="H23" s="18" t="s">
+      <c r="H23" s="15" t="s">
         <v>335</v>
       </c>
-      <c r="I23" s="18" t="s">
+      <c r="I23" s="15" t="s">
         <v>271</v>
       </c>
-      <c r="J23" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="K23" s="18" t="s">
+      <c r="J23" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="L23" s="18" t="s">
+      <c r="K23" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="M23" s="18" t="s">
+      <c r="L23" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="N23" s="18" t="s">
+      <c r="M23" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="O23" s="18" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="24" s="20" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="20" t="s">
+      <c r="N23" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="B24" s="20" t="s">
+      <c r="O23" s="15" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B24" s="1" t="s">
         <v>336</v>
       </c>
-      <c r="C24" s="34" t="s">
+      <c r="C24" s="26" t="s">
         <v>337</v>
       </c>
-      <c r="D24" s="20" t="s">
+      <c r="D24" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="E24" s="20" t="s">
+      <c r="E24" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="F24" s="20" t="s">
+      <c r="F24" s="1" t="s">
         <v>338</v>
       </c>
-      <c r="G24" s="20" t="s">
+      <c r="G24" s="1" t="s">
         <v>339</v>
       </c>
-      <c r="H24" s="20" t="s">
+      <c r="H24" s="1" t="s">
         <v>340</v>
       </c>
-      <c r="K24" s="20" t="s">
+      <c r="K24" s="1" t="s">
         <v>341</v>
       </c>
-      <c r="M24" s="20" t="s">
+      <c r="M24" s="1" t="s">
         <v>342</v>
       </c>
       <c r="N24" s="7" t="s">
@@ -8324,100 +7281,100 @@
       <c r="Q24" s="7"/>
       <c r="R24" s="7"/>
     </row>
-    <row r="25" s="20" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="20" t="s">
+    <row r="25" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B25" s="20" t="s">
+      <c r="B25" s="1" t="s">
         <v>344</v>
       </c>
-      <c r="C25" s="20" t="s">
+      <c r="C25" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="D25" s="20" t="s">
+      <c r="D25" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="E25" s="20" t="s">
+      <c r="E25" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="F25" s="20" t="s">
+      <c r="F25" s="1" t="s">
         <v>338</v>
       </c>
-      <c r="G25" s="20" t="s">
+      <c r="G25" s="1" t="s">
         <v>339</v>
       </c>
-      <c r="H25" s="20" t="s">
+      <c r="H25" s="1" t="s">
         <v>340</v>
       </c>
-      <c r="K25" s="20" t="s">
+      <c r="K25" s="1" t="s">
         <v>341</v>
       </c>
-      <c r="M25" s="20" t="s">
+      <c r="M25" s="1" t="s">
         <v>345</v>
       </c>
-      <c r="N25" s="35" t="s">
+      <c r="N25" s="27" t="s">
         <v>346</v>
       </c>
-      <c r="O25" s="35" t="s">
+      <c r="O25" s="27" t="s">
         <v>346</v>
       </c>
-      <c r="P25" s="36"/>
-    </row>
-    <row r="26" s="20" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="20" t="s">
+      <c r="P25" s="27"/>
+    </row>
+    <row r="26" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B26" s="34" t="s">
+      <c r="B26" s="26" t="s">
         <v>347</v>
       </c>
-      <c r="C26" s="20" t="s">
+      <c r="C26" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="D26" s="20" t="s">
+      <c r="D26" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="E26" s="20" t="s">
+      <c r="E26" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="F26" s="20" t="s">
+      <c r="F26" s="1" t="s">
         <v>338</v>
       </c>
-      <c r="G26" s="20" t="s">
+      <c r="G26" s="1" t="s">
         <v>339</v>
       </c>
-      <c r="H26" s="20" t="s">
+      <c r="H26" s="1" t="s">
         <v>348</v>
       </c>
-      <c r="K26" s="20" t="s">
+      <c r="K26" s="1" t="s">
         <v>341</v>
       </c>
-      <c r="M26" s="20" t="s">
+      <c r="M26" s="1" t="s">
         <v>349</v>
       </c>
-      <c r="N26" s="20" t="s">
+      <c r="N26" s="1" t="s">
         <v>350</v>
       </c>
-      <c r="O26" s="20" t="s">
+      <c r="O26" s="1" t="s">
         <v>351</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="20" t="s">
+      <c r="A27" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B27" s="34" t="s">
+      <c r="B27" s="26" t="s">
         <v>352</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="D27" s="20" t="s">
+      <c r="D27" s="1" t="s">
         <v>274</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="F27" s="20" t="s">
+      <c r="F27" s="1" t="s">
         <v>338</v>
       </c>
       <c r="G27" s="1" t="s">
@@ -8426,10 +7383,10 @@
       <c r="H27" s="1" t="s">
         <v>348</v>
       </c>
-      <c r="K27" s="20" t="s">
+      <c r="K27" s="1" t="s">
         <v>341</v>
       </c>
-      <c r="M27" s="20" t="s">
+      <c r="M27" s="1" t="s">
         <v>353</v>
       </c>
       <c r="N27" s="7" t="s">
@@ -8439,14 +7396,10 @@
         <v>355</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="20"/>
-    </row>
     <row r="29" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="24" t="s">
+      <c r="A29" s="19" t="s">
         <v>148</v>
       </c>
-      <c r="B29" s="20"/>
     </row>
     <row r="30" s="5" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="5" t="s">
@@ -8454,47 +7407,47 @@
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="13" t="s">
+      <c r="A31" s="11" t="s">
         <v>150</v>
       </c>
-      <c r="B31" s="12"/>
-      <c r="C31" s="25"/>
-      <c r="J31" s="25"/>
-      <c r="K31" s="25"/>
+      <c r="B31" s="10"/>
+      <c r="C31" s="20"/>
+      <c r="J31" s="20"/>
+      <c r="K31" s="20"/>
     </row>
     <row r="32" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="13" t="s">
+      <c r="A32" s="11" t="s">
         <v>151</v>
       </c>
-      <c r="B32" s="25"/>
-      <c r="C32" s="25"/>
-      <c r="J32" s="25"/>
-      <c r="K32" s="25"/>
+      <c r="B32" s="20"/>
+      <c r="C32" s="20"/>
+      <c r="J32" s="20"/>
+      <c r="K32" s="20"/>
     </row>
     <row r="33" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="10" t="s">
+      <c r="A33" s="8" t="s">
         <v>152</v>
       </c>
-      <c r="B33" s="25" t="s">
+      <c r="B33" s="20" t="s">
         <v>356</v>
       </c>
-      <c r="C33" s="25"/>
-      <c r="J33" s="25"/>
-      <c r="K33" s="25"/>
+      <c r="C33" s="20"/>
+      <c r="J33" s="20"/>
+      <c r="K33" s="20"/>
     </row>
     <row r="34" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="10" t="s">
+      <c r="A34" s="8" t="s">
         <v>154</v>
       </c>
-      <c r="B34" s="12" t="s">
+      <c r="B34" s="10" t="s">
         <v>357</v>
       </c>
-      <c r="C34" s="25"/>
-      <c r="J34" s="25"/>
-      <c r="K34" s="25"/>
+      <c r="C34" s="20"/>
+      <c r="J34" s="20"/>
+      <c r="K34" s="20"/>
     </row>
     <row r="35" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="10" t="s">
+      <c r="A35" s="8" t="s">
         <v>156</v>
       </c>
       <c r="B35" s="1" t="s">
@@ -8502,25 +7455,25 @@
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="10"/>
+      <c r="A36" s="8"/>
     </row>
     <row r="37" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="6" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="38" s="26" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="26" t="s">
+    <row r="38" s="12" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="12" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="39" s="26" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="26" t="s">
+    <row r="39" s="12" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="12" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="10" t="s">
+      <c r="A40" s="8" t="s">
         <v>161</v>
       </c>
       <c r="B40" s="1" t="s">
@@ -8528,7 +7481,7 @@
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="10" t="s">
+      <c r="A41" s="8" t="s">
         <v>161</v>
       </c>
       <c r="B41" s="1" t="s">
@@ -8536,7 +7489,7 @@
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="10" t="s">
+      <c r="A42" s="8" t="s">
         <v>161</v>
       </c>
       <c r="B42" s="1" t="s">
@@ -8544,334 +7497,331 @@
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="10" t="s">
+      <c r="A43" s="8" t="s">
         <v>161</v>
       </c>
-      <c r="B43" s="20"/>
     </row>
     <row r="44" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="10" t="s">
+      <c r="A44" s="8" t="s">
         <v>161</v>
       </c>
-      <c r="B44" s="27"/>
-      <c r="C44" s="25"/>
-      <c r="J44" s="25"/>
-      <c r="K44" s="25"/>
+      <c r="B44" s="20"/>
+      <c r="C44" s="20"/>
+      <c r="J44" s="20"/>
+      <c r="K44" s="20"/>
     </row>
     <row r="45" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="10" t="s">
+      <c r="A45" s="8" t="s">
         <v>166</v>
       </c>
-      <c r="B45" s="27" t="s">
+      <c r="B45" s="20" t="s">
         <v>304</v>
       </c>
-      <c r="C45" s="25"/>
-      <c r="J45" s="25"/>
-      <c r="K45" s="25"/>
+      <c r="C45" s="20"/>
+      <c r="J45" s="20"/>
+      <c r="K45" s="20"/>
     </row>
     <row r="46" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="10" t="s">
+      <c r="A46" s="8" t="s">
         <v>168</v>
       </c>
-      <c r="B46" s="27" t="s">
+      <c r="B46" s="20" t="s">
         <v>362</v>
       </c>
-      <c r="C46" s="25"/>
-      <c r="J46" s="25"/>
-      <c r="K46" s="25"/>
+      <c r="C46" s="20"/>
+      <c r="J46" s="20"/>
+      <c r="K46" s="20"/>
     </row>
     <row r="47" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="10" t="s">
+      <c r="A47" s="8" t="s">
         <v>168</v>
       </c>
-      <c r="B47" s="27" t="s">
+      <c r="B47" s="20" t="s">
         <v>363</v>
       </c>
-      <c r="C47" s="25"/>
-      <c r="J47" s="25"/>
-      <c r="K47" s="25"/>
+      <c r="C47" s="20"/>
+      <c r="J47" s="20"/>
+      <c r="K47" s="20"/>
     </row>
     <row r="48" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="10"/>
-      <c r="B48" s="12"/>
-      <c r="C48" s="25"/>
-      <c r="J48" s="25"/>
-      <c r="K48" s="25"/>
-    </row>
-    <row r="49" s="26" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="26" t="s">
+      <c r="A48" s="8"/>
+      <c r="B48" s="10"/>
+      <c r="C48" s="20"/>
+      <c r="J48" s="20"/>
+      <c r="K48" s="20"/>
+    </row>
+    <row r="49" s="12" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="12" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="50" s="12" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="28" t="s">
+    <row r="50" s="10" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="21" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="51" s="29" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="29" t="s">
+    <row r="51" s="22" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="22" t="s">
         <v>172</v>
       </c>
-      <c r="B51" s="29" t="s">
+      <c r="B51" s="22" t="s">
         <v>173</v>
       </c>
-      <c r="C51" s="30" t="s">
+      <c r="C51" s="23" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="52" s="12" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="20" t="s">
+    <row r="52" s="10" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="1" t="s">
         <v>364</v>
       </c>
-      <c r="B52" s="20" t="s">
+      <c r="B52" s="1" t="s">
         <v>365</v>
       </c>
-      <c r="C52" s="20" t="s">
+      <c r="C52" s="1" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="53" s="12" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="20" t="s">
+    <row r="53" s="10" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="1" t="s">
         <v>345</v>
       </c>
-      <c r="B53" s="20" t="s">
+      <c r="B53" s="1" t="s">
         <v>365</v>
       </c>
-      <c r="C53" s="20" t="s">
+      <c r="C53" s="1" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="54" s="12" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="20" t="s">
+    <row r="54" s="10" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="1" t="s">
         <v>349</v>
       </c>
-      <c r="B54" s="20" t="s">
+      <c r="B54" s="1" t="s">
         <v>365</v>
       </c>
-      <c r="C54" s="20" t="s">
+      <c r="C54" s="1" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="55" s="12" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="20" t="s">
+    <row r="55" s="10" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="1" t="s">
         <v>353</v>
       </c>
-      <c r="B55" s="20" t="s">
+      <c r="B55" s="1" t="s">
         <v>365</v>
       </c>
-      <c r="C55" s="20" t="s">
+      <c r="C55" s="1" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="56" s="12" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="20" t="s">
+    <row r="56" s="10" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="B56" s="20" t="s">
+      <c r="B56" s="1" t="s">
         <v>369</v>
       </c>
-      <c r="C56" s="20" t="s">
+      <c r="C56" s="1" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="57" s="12" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="20"/>
-      <c r="B57" s="20"/>
-      <c r="C57" s="20"/>
-    </row>
-    <row r="58" s="26" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="26" t="s">
+    <row r="57" s="10" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="1"/>
+      <c r="B57" s="1"/>
+      <c r="C57" s="1"/>
+    </row>
+    <row r="58" s="12" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="12" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="59" s="12" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="28" t="s">
+    <row r="59" s="10" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="21" t="s">
         <v>205</v>
       </c>
-      <c r="D59" s="28"/>
-    </row>
-    <row r="60" s="30" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="29" t="s">
+      <c r="D59" s="21"/>
+    </row>
+    <row r="60" s="23" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="22" t="s">
         <v>172</v>
       </c>
-      <c r="B60" s="29" t="s">
+      <c r="B60" s="22" t="s">
         <v>173</v>
       </c>
-      <c r="C60" s="30" t="s">
+      <c r="C60" s="23" t="s">
         <v>174</v>
       </c>
-      <c r="D60" s="29" t="s">
+      <c r="D60" s="22" t="s">
         <v>206</v>
       </c>
-      <c r="E60" s="29" t="s">
+      <c r="E60" s="22" t="s">
         <v>207</v>
       </c>
-      <c r="F60" s="29"/>
-    </row>
-    <row r="61" s="37" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F60" s="22"/>
+    </row>
+    <row r="61" s="28" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="7" t="s">
         <v>343</v>
       </c>
-      <c r="B61" s="20" t="s">
+      <c r="B61" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="C61" s="20" t="s">
+      <c r="C61" s="1" t="s">
         <v>315</v>
       </c>
-      <c r="D61" s="35" t="s">
+      <c r="D61" s="27" t="s">
         <v>370</v>
       </c>
-      <c r="E61" s="14" t="s">
+      <c r="E61" s="10" t="s">
         <v>371</v>
       </c>
-      <c r="F61" s="33"/>
-    </row>
-    <row r="62" s="37" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F61" s="25"/>
+    </row>
+    <row r="62" s="28" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="7" t="s">
         <v>372</v>
       </c>
-      <c r="B62" s="20" t="s">
+      <c r="B62" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="C62" s="20" t="s">
+      <c r="C62" s="1" t="s">
         <v>317</v>
       </c>
-      <c r="D62" s="35" t="s">
+      <c r="D62" s="27" t="s">
         <v>370</v>
       </c>
-      <c r="E62" s="14" t="s">
+      <c r="E62" s="10" t="s">
         <v>371</v>
       </c>
-      <c r="F62" s="33"/>
-    </row>
-    <row r="63" s="37" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F62" s="25"/>
+    </row>
+    <row r="63" s="28" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="7" t="s">
         <v>346</v>
       </c>
-      <c r="B63" s="20" t="s">
+      <c r="B63" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="C63" s="20" t="s">
+      <c r="C63" s="1" t="s">
         <v>318</v>
       </c>
-      <c r="D63" s="35" t="s">
+      <c r="D63" s="27" t="s">
         <v>370</v>
       </c>
-      <c r="E63" s="14" t="s">
+      <c r="E63" s="10" t="s">
         <v>371</v>
       </c>
-      <c r="F63" s="33"/>
-    </row>
-    <row r="64" s="37" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F63" s="25"/>
+    </row>
+    <row r="64" s="28" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="7" t="s">
         <v>373</v>
       </c>
-      <c r="B64" s="20" t="s">
+      <c r="B64" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="C64" s="20" t="s">
+      <c r="C64" s="1" t="s">
         <v>366</v>
       </c>
-      <c r="D64" s="35" t="s">
+      <c r="D64" s="27" t="s">
         <v>370</v>
       </c>
-      <c r="E64" s="14" t="s">
+      <c r="E64" s="10" t="s">
         <v>371</v>
       </c>
-      <c r="F64" s="33"/>
-    </row>
-    <row r="65" s="37" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F64" s="25"/>
+    </row>
+    <row r="65" s="28" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="7" t="s">
         <v>350</v>
       </c>
-      <c r="B65" s="20" t="s">
+      <c r="B65" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="C65" s="20" t="s">
+      <c r="C65" s="1" t="s">
         <v>374</v>
       </c>
-      <c r="D65" s="35" t="s">
+      <c r="D65" s="27" t="s">
         <v>370</v>
       </c>
-      <c r="E65" s="14" t="s">
+      <c r="E65" s="10" t="s">
         <v>371</v>
       </c>
-      <c r="F65" s="33"/>
-    </row>
-    <row r="66" s="37" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F65" s="25"/>
+    </row>
+    <row r="66" s="28" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="7" t="s">
         <v>351</v>
       </c>
-      <c r="B66" s="20" t="s">
+      <c r="B66" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="C66" s="20" t="s">
+      <c r="C66" s="1" t="s">
         <v>312</v>
       </c>
-      <c r="D66" s="35" t="s">
+      <c r="D66" s="27" t="s">
         <v>370</v>
       </c>
-      <c r="E66" s="14" t="s">
+      <c r="E66" s="10" t="s">
         <v>371</v>
       </c>
-      <c r="F66" s="33"/>
-    </row>
-    <row r="67" s="12" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F66" s="25"/>
+    </row>
+    <row r="67" s="10" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="7" t="s">
         <v>354</v>
       </c>
-      <c r="B67" s="20" t="s">
+      <c r="B67" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="C67" s="20" t="s">
+      <c r="C67" s="1" t="s">
         <v>313</v>
       </c>
-      <c r="D67" s="35" t="s">
+      <c r="D67" s="27" t="s">
         <v>370</v>
       </c>
-      <c r="E67" s="14" t="s">
+      <c r="E67" s="10" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="68" s="12" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="68" s="10" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="7" t="s">
         <v>355</v>
       </c>
-      <c r="B68" s="20" t="s">
+      <c r="B68" s="1" t="s">
         <v>208</v>
       </c>
       <c r="C68" s="1" t="s">
         <v>375</v>
       </c>
-      <c r="D68" s="35" t="s">
+      <c r="D68" s="27" t="s">
         <v>370</v>
       </c>
-      <c r="E68" s="14" t="s">
+      <c r="E68" s="10" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="69" s="12" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F69" s="14"/>
-    </row>
-    <row r="70" s="26" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="26" t="s">
+    <row r="69" s="10" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="70" s="12" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="12" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="71" s="12" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="28" t="s">
+    <row r="71" s="10" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="21" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="72" s="29" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="29" t="s">
+    <row r="72" s="22" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="22" t="s">
         <v>322</v>
       </c>
-      <c r="B72" s="29" t="s">
+      <c r="B72" s="22" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="73" s="12" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="73" s="10" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="7" t="s">
         <v>343</v>
       </c>
@@ -8879,7 +7829,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="74" s="12" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="74" s="10" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="7" t="s">
         <v>346</v>
       </c>
@@ -8887,7 +7837,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="75" s="12" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="75" s="10" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="7" t="s">
         <v>350</v>
       </c>
@@ -8895,7 +7845,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="76" s="12" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="76" s="10" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="7" t="s">
         <v>354</v>
       </c>
@@ -8903,490 +7853,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="77" s="12" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="78" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="8"/>
-    </row>
-    <row r="79" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="8"/>
-    </row>
-    <row r="80" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="8"/>
-    </row>
-    <row r="81" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="8"/>
-    </row>
-    <row r="82" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="8"/>
-    </row>
-    <row r="83" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="8"/>
-    </row>
-    <row r="84" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="8"/>
-    </row>
-    <row r="85" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="8"/>
-    </row>
-    <row r="86" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="8"/>
-    </row>
-    <row r="87" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="8"/>
-    </row>
-    <row r="88" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="8"/>
-    </row>
-    <row r="89" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="8"/>
-    </row>
-    <row r="90" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="8"/>
-    </row>
-    <row r="91" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="8"/>
-    </row>
-    <row r="92" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="8"/>
-    </row>
-    <row r="93" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="8"/>
-    </row>
-    <row r="94" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="8"/>
-    </row>
-    <row r="95" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="8"/>
-    </row>
-    <row r="96" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="8"/>
-    </row>
-    <row r="97" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="8"/>
-    </row>
-    <row r="98" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="8"/>
-    </row>
-    <row r="99" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="8"/>
-    </row>
-    <row r="100" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="8"/>
-    </row>
-    <row r="101" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="8"/>
-    </row>
-    <row r="102" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="8"/>
-    </row>
-    <row r="103" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A103" s="8"/>
-    </row>
-    <row r="104" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A104" s="8"/>
-    </row>
-    <row r="105" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A105" s="8"/>
-    </row>
-    <row r="106" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A106" s="8"/>
-    </row>
-    <row r="107" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A107" s="8"/>
-    </row>
-    <row r="108" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A108" s="8"/>
-    </row>
-    <row r="109" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A109" s="8"/>
-    </row>
-    <row r="110" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A110" s="8"/>
-    </row>
-    <row r="111" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A111" s="8"/>
-    </row>
-    <row r="112" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A112" s="8"/>
-    </row>
-    <row r="113" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A113" s="8"/>
-    </row>
-    <row r="114" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A114" s="8"/>
-    </row>
-    <row r="115" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A115" s="8"/>
-    </row>
-    <row r="116" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A116" s="8"/>
-    </row>
-    <row r="117" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A117" s="8"/>
-    </row>
-    <row r="118" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A118" s="8"/>
-    </row>
-    <row r="119" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A119" s="8"/>
-    </row>
-    <row r="120" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A120" s="8"/>
-    </row>
-    <row r="121" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A121" s="8"/>
-    </row>
-    <row r="122" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A122" s="8"/>
-    </row>
-    <row r="123" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A123" s="8"/>
-    </row>
-    <row r="124" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A124" s="8"/>
-    </row>
-    <row r="125" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A125" s="8"/>
-    </row>
-    <row r="126" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A126" s="8"/>
-    </row>
-    <row r="127" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A127" s="8"/>
-    </row>
-    <row r="128" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A128" s="8"/>
-    </row>
-    <row r="129" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A129" s="8"/>
-    </row>
-    <row r="130" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A130" s="8"/>
-    </row>
-    <row r="131" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A131" s="8"/>
-    </row>
-    <row r="132" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A132" s="8"/>
-    </row>
-    <row r="133" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A133" s="8"/>
-    </row>
-    <row r="134" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A134" s="8"/>
-    </row>
-    <row r="135" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A135" s="8"/>
-    </row>
-    <row r="136" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A136" s="8"/>
-    </row>
-    <row r="137" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A137" s="8"/>
-    </row>
-    <row r="138" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A138" s="8"/>
-    </row>
-    <row r="139" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A139" s="8"/>
-    </row>
-    <row r="140" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A140" s="8"/>
-    </row>
-    <row r="141" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A141" s="8"/>
-    </row>
-    <row r="142" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A142" s="8"/>
-    </row>
-    <row r="143" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A143" s="8"/>
-    </row>
-    <row r="144" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A144" s="8"/>
-    </row>
-    <row r="145" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A145" s="8"/>
-    </row>
-    <row r="146" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A146" s="8"/>
-    </row>
-    <row r="147" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A147" s="8"/>
-    </row>
-    <row r="148" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A148" s="8"/>
-    </row>
-    <row r="149" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A149" s="8"/>
-    </row>
-    <row r="150" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A150" s="8"/>
-    </row>
-    <row r="151" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A151" s="8"/>
-    </row>
-    <row r="152" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A152" s="8"/>
-    </row>
-    <row r="153" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A153" s="8"/>
-    </row>
-    <row r="154" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A154" s="8"/>
-    </row>
-    <row r="155" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A155" s="8"/>
-    </row>
-    <row r="156" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A156" s="8"/>
-    </row>
-    <row r="157" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A157" s="8"/>
-    </row>
-    <row r="158" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A158" s="8"/>
-    </row>
-    <row r="159" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A159" s="8"/>
-    </row>
-    <row r="160" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A160" s="8"/>
-    </row>
-    <row r="161" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A161" s="8"/>
-    </row>
-    <row r="162" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A162" s="8"/>
-    </row>
-    <row r="163" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A163" s="8"/>
-    </row>
-    <row r="164" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A164" s="8"/>
-    </row>
-    <row r="165" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A165" s="8"/>
-    </row>
-    <row r="166" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A166" s="8"/>
-    </row>
-    <row r="167" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A167" s="8"/>
-    </row>
-    <row r="168" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A168" s="8"/>
-    </row>
-    <row r="169" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A169" s="8"/>
-    </row>
-    <row r="170" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A170" s="8"/>
-    </row>
-    <row r="171" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A171" s="8"/>
-    </row>
-    <row r="172" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A172" s="8"/>
-    </row>
-    <row r="173" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A173" s="8"/>
-    </row>
-    <row r="174" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A174" s="8"/>
-    </row>
-    <row r="175" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A175" s="8"/>
-    </row>
-    <row r="176" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A176" s="8"/>
-    </row>
-    <row r="177" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A177" s="8"/>
-    </row>
-    <row r="178" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A178" s="8"/>
-    </row>
-    <row r="179" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A179" s="8"/>
-    </row>
-    <row r="180" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A180" s="8"/>
-    </row>
-    <row r="181" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A181" s="8"/>
-    </row>
-    <row r="182" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A182" s="8"/>
-    </row>
-    <row r="183" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A183" s="8"/>
-    </row>
-    <row r="184" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A184" s="8"/>
-    </row>
-    <row r="185" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A185" s="8"/>
-    </row>
-    <row r="186" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A186" s="8"/>
-    </row>
-    <row r="187" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A187" s="8"/>
-    </row>
-    <row r="188" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A188" s="8"/>
-    </row>
-    <row r="189" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A189" s="8"/>
-    </row>
-    <row r="190" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A190" s="8"/>
-    </row>
-    <row r="191" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A191" s="8"/>
-    </row>
-    <row r="192" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A192" s="8"/>
-    </row>
-    <row r="193" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A193" s="8"/>
-    </row>
-    <row r="194" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A194" s="8"/>
-    </row>
-    <row r="195" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A195" s="8"/>
-    </row>
-    <row r="196" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A196" s="8"/>
-    </row>
-    <row r="197" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A197" s="8"/>
-    </row>
-    <row r="198" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A198" s="8"/>
-    </row>
-    <row r="199" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A199" s="8"/>
-    </row>
-    <row r="200" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A200" s="8"/>
-    </row>
-    <row r="201" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A201" s="8"/>
-    </row>
-    <row r="202" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A202" s="8"/>
-    </row>
-    <row r="203" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A203" s="8"/>
-    </row>
-    <row r="204" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A204" s="8"/>
-    </row>
-    <row r="205" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A205" s="8"/>
-    </row>
-    <row r="206" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A206" s="8"/>
-    </row>
-    <row r="207" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A207" s="8"/>
-    </row>
-    <row r="208" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A208" s="8"/>
-    </row>
-    <row r="209" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A209" s="8"/>
-    </row>
-    <row r="210" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A210" s="8"/>
-    </row>
-    <row r="211" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A211" s="8"/>
-    </row>
-    <row r="212" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A212" s="8"/>
-    </row>
-    <row r="213" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A213" s="8"/>
-    </row>
-    <row r="214" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A214" s="8"/>
-    </row>
-    <row r="215" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A215" s="8"/>
-    </row>
-    <row r="216" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A216" s="8"/>
-    </row>
-    <row r="217" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A217" s="8"/>
-    </row>
-    <row r="218" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A218" s="8"/>
-    </row>
-    <row r="219" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A219" s="8"/>
-    </row>
-    <row r="220" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A220" s="8"/>
-    </row>
-    <row r="221" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A221" s="8"/>
-    </row>
-    <row r="222" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A222" s="8"/>
-    </row>
-    <row r="223" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A223" s="8"/>
-    </row>
-    <row r="224" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A224" s="8"/>
-    </row>
-    <row r="225" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A225" s="8"/>
-    </row>
-    <row r="226" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A226" s="8"/>
-    </row>
-    <row r="227" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A227" s="8"/>
-    </row>
-    <row r="228" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A228" s="8"/>
-    </row>
-    <row r="229" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A229" s="8"/>
-    </row>
-    <row r="230" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A230" s="8"/>
-    </row>
-    <row r="231" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A231" s="8"/>
-    </row>
-    <row r="232" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A232" s="8"/>
-    </row>
-    <row r="233" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A233" s="8"/>
-    </row>
-    <row r="234" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A234" s="8"/>
-    </row>
-    <row r="235" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A235" s="8"/>
-    </row>
-    <row r="236" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A236" s="8"/>
-    </row>
-    <row r="237" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A237" s="8"/>
-    </row>
-    <row r="238" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A238" s="8"/>
-    </row>
+    <row r="77" s="10" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A22:I22"/>
